--- a/OpsAndMats/Model76E_Motor.xlsx
+++ b/OpsAndMats/Model76E_Motor.xlsx
@@ -194,6 +194,9 @@
     <t>8033898-1</t>
   </si>
   <si>
+    <t>8033898-2</t>
+  </si>
+  <si>
     <t>8025973</t>
   </si>
   <si>
@@ -390,9 +393,6 @@
   </si>
   <si>
     <t>9010240-5</t>
-  </si>
-  <si>
-    <t>8033898-2</t>
   </si>
   <si>
     <t>9014203-4</t>
@@ -1198,22 +1198,22 @@
         <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I2" t="s">
         <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1281,22 +1281,22 @@
         <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E3">
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I3" t="s">
         <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -1364,22 +1364,22 @@
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I4" t="s">
         <v>50</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -1447,22 +1447,22 @@
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E5">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I5" t="s">
         <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -1530,22 +1530,22 @@
         <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E6">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I6" t="s">
         <v>53</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K6">
         <v>5</v>
@@ -1613,22 +1613,22 @@
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E7">
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I7" t="s">
         <v>54</v>
       </c>
       <c r="J7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K7">
         <v>6</v>
@@ -1696,22 +1696,22 @@
         <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E8">
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I8" t="s">
         <v>56</v>
       </c>
       <c r="J8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K8">
         <v>7</v>
@@ -1779,22 +1779,22 @@
         <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E9">
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I9" t="s">
         <v>57</v>
       </c>
       <c r="J9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K9">
         <v>8</v>
@@ -1862,22 +1862,22 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E10">
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K10">
         <v>9</v>
@@ -1945,22 +1945,22 @@
         <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K11">
         <v>10</v>
@@ -2028,22 +2028,22 @@
         <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12">
         <v>11</v>
@@ -2111,22 +2111,22 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E13">
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K13">
         <v>12</v>
@@ -2194,22 +2194,22 @@
         <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E14">
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K14">
         <v>13</v>
@@ -2277,22 +2277,22 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E15">
         <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K15">
         <v>14</v>
@@ -2360,22 +2360,22 @@
         <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E16">
         <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K16">
         <v>15</v>
@@ -2443,22 +2443,22 @@
         <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E17">
         <v>10</v>
       </c>
       <c r="G17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" t="s">
         <v>85</v>
-      </c>
-      <c r="H17" t="s">
-        <v>90</v>
-      </c>
-      <c r="I17" t="s">
-        <v>67</v>
-      </c>
-      <c r="J17" t="s">
-        <v>84</v>
       </c>
       <c r="K17">
         <v>16</v>
@@ -2526,19 +2526,19 @@
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E18">
         <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J18" t="s">
         <v>132</v>
@@ -2609,19 +2609,19 @@
         <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E19">
         <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J19" t="s">
         <v>133</v>
@@ -2692,19 +2692,19 @@
         <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E20">
         <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J20" t="s">
         <v>134</v>
@@ -2775,19 +2775,19 @@
         <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E21">
         <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J21" t="s">
         <v>135</v>
@@ -2858,19 +2858,19 @@
         <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E22">
         <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J22" t="s">
         <v>136</v>
@@ -2941,19 +2941,19 @@
         <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E23">
         <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J23" t="s">
         <v>137</v>
@@ -3024,19 +3024,19 @@
         <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E24">
         <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J24" t="s">
         <v>138</v>
@@ -3107,19 +3107,19 @@
         <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E25">
         <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J25" t="s">
         <v>139</v>
@@ -3190,19 +3190,19 @@
         <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E26">
         <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J26" t="s">
         <v>140</v>
@@ -3273,19 +3273,19 @@
         <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E27">
         <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J27" t="s">
         <v>141</v>
@@ -3356,19 +3356,19 @@
         <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E28">
         <v>10</v>
       </c>
       <c r="G28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J28" t="s">
         <v>142</v>
@@ -3439,19 +3439,19 @@
         <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E29">
         <v>10</v>
       </c>
       <c r="G29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J29" t="s">
         <v>143</v>
@@ -3522,19 +3522,19 @@
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E30">
         <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J30" t="s">
         <v>144</v>
@@ -3605,19 +3605,19 @@
         <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E31">
         <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J31" t="s">
         <v>145</v>
@@ -3688,19 +3688,19 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E32">
         <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J32" t="s">
         <v>146</v>
@@ -3771,19 +3771,19 @@
         <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E33">
         <v>10</v>
       </c>
       <c r="G33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J33" t="s">
         <v>147</v>
@@ -3854,19 +3854,19 @@
         <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E34">
         <v>10</v>
       </c>
       <c r="G34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I34" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J34" t="s">
         <v>148</v>
@@ -3937,19 +3937,19 @@
         <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>10</v>
       </c>
       <c r="G35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J35" t="s">
         <v>149</v>
@@ -4020,19 +4020,19 @@
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E36">
         <v>10</v>
       </c>
       <c r="G36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I36" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J36" t="s">
         <v>150</v>
@@ -4103,19 +4103,19 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E37">
         <v>10</v>
       </c>
       <c r="G37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I37" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J37" t="s">
         <v>151</v>
@@ -4186,19 +4186,19 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E38">
         <v>10</v>
       </c>
       <c r="G38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I38" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J38" t="s">
         <v>152</v>
@@ -4269,19 +4269,19 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E39">
         <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J39" t="s">
         <v>153</v>
@@ -4352,19 +4352,19 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E40">
         <v>10</v>
       </c>
       <c r="G40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I40" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J40" t="s">
         <v>154</v>
@@ -4435,22 +4435,22 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E41">
         <v>10</v>
       </c>
       <c r="G41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H41" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I41" t="s">
         <v>43</v>
       </c>
       <c r="J41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -4518,19 +4518,19 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E42">
         <v>10</v>
       </c>
       <c r="G42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I42" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J42" t="s">
         <v>155</v>
@@ -4601,22 +4601,22 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E43">
         <v>10</v>
       </c>
       <c r="G43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I43" t="s">
         <v>43</v>
       </c>
       <c r="J43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -4684,19 +4684,19 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E44">
         <v>10</v>
       </c>
       <c r="G44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J44" t="s">
         <v>156</v>
@@ -4767,19 +4767,19 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E45">
         <v>10</v>
       </c>
       <c r="G45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I45" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J45" t="s">
         <v>157</v>
@@ -4850,22 +4850,22 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E46">
         <v>10</v>
       </c>
       <c r="G46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I46" t="s">
         <v>46</v>
       </c>
       <c r="J46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -4933,19 +4933,19 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E47">
         <v>70</v>
       </c>
       <c r="G47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J47" t="s">
         <v>158</v>
@@ -5016,22 +5016,22 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E48">
         <v>10</v>
       </c>
       <c r="G48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I48" t="s">
         <v>46</v>
       </c>
       <c r="J48" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -5099,19 +5099,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E49">
         <v>70</v>
       </c>
       <c r="G49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I49" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J49" t="s">
         <v>158</v>
@@ -5182,19 +5182,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E50">
         <v>10</v>
       </c>
       <c r="G50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I50" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J50" t="s">
         <v>159</v>
@@ -5265,22 +5265,22 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E51">
         <v>10</v>
       </c>
       <c r="G51" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H51" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I51" t="s">
         <v>49</v>
       </c>
       <c r="J51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K51">
         <v>1</v>
@@ -5348,19 +5348,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E52">
         <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I52" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J52" t="s">
         <v>158</v>
@@ -5431,22 +5431,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E53">
         <v>10</v>
       </c>
       <c r="G53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I53" t="s">
         <v>49</v>
       </c>
       <c r="J53" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -5514,19 +5514,19 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E54">
         <v>60</v>
       </c>
       <c r="G54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I54" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J54" t="s">
         <v>158</v>
@@ -5597,19 +5597,19 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E55">
         <v>10</v>
       </c>
       <c r="G55" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I55" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J55" t="s">
         <v>160</v>
@@ -5680,22 +5680,22 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E56">
         <v>10</v>
       </c>
       <c r="G56" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H56" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I56" t="s">
         <v>52</v>
       </c>
       <c r="J56" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -5763,19 +5763,19 @@
         <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E57">
         <v>70</v>
       </c>
       <c r="G57" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I57" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J57" t="s">
         <v>158</v>
@@ -5846,22 +5846,22 @@
         <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E58">
         <v>10</v>
       </c>
       <c r="G58" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I58" t="s">
         <v>52</v>
       </c>
       <c r="J58" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K58">
         <v>1</v>
@@ -5929,19 +5929,19 @@
         <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E59">
         <v>60</v>
       </c>
       <c r="G59" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I59" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J59" t="s">
         <v>158</v>
@@ -6012,22 +6012,22 @@
         <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E60">
         <v>10</v>
       </c>
       <c r="G60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I60" t="s">
         <v>52</v>
       </c>
       <c r="J60" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -6095,19 +6095,19 @@
         <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E61">
         <v>80</v>
       </c>
       <c r="G61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I61" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J61" t="s">
         <v>158</v>
@@ -6178,19 +6178,19 @@
         <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E62">
         <v>10</v>
       </c>
       <c r="G62" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H62" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I62" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J62" t="s">
         <v>161</v>
@@ -6261,19 +6261,19 @@
         <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E63">
         <v>60</v>
       </c>
       <c r="G63" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I63" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J63" t="s">
         <v>158</v>
@@ -6344,22 +6344,22 @@
         <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E64">
         <v>10</v>
       </c>
       <c r="G64" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H64" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I64" t="s">
         <v>58</v>
       </c>
       <c r="J64" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K64">
         <v>1</v>
@@ -6427,22 +6427,22 @@
         <v>57</v>
       </c>
       <c r="B65" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E65">
         <v>10</v>
       </c>
       <c r="G65" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H65" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I65" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="J65" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K65">
         <v>2</v>
@@ -6510,19 +6510,19 @@
         <v>57</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E66">
         <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H66" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I66" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J66" t="s">
         <v>158</v>
@@ -6593,16 +6593,16 @@
         <v>58</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E67">
         <v>10</v>
       </c>
       <c r="G67" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H67" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I67" t="s">
         <v>126</v>
@@ -6673,19 +6673,19 @@
     </row>
     <row r="68" spans="1:43">
       <c r="A68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E68">
         <v>10</v>
       </c>
       <c r="G68" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I68" t="s">
         <v>126</v>
@@ -6706,7 +6706,7 @@
         <v>8</v>
       </c>
       <c r="S68">
-        <v>7.8125</v>
+        <v>4.3125</v>
       </c>
       <c r="T68" t="s">
         <v>167</v>
@@ -6756,19 +6756,19 @@
     </row>
     <row r="69" spans="1:43">
       <c r="A69" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E69">
         <v>10</v>
       </c>
       <c r="G69" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I69" t="s">
         <v>127</v>
@@ -6839,22 +6839,22 @@
     </row>
     <row r="70" spans="1:43">
       <c r="A70" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E70">
         <v>60</v>
       </c>
       <c r="G70" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I70" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J70" t="s">
         <v>158</v>
@@ -6922,19 +6922,19 @@
     </row>
     <row r="71" spans="1:43">
       <c r="A71" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E71">
         <v>10</v>
       </c>
       <c r="G71" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H71" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I71" t="s">
         <v>128</v>
@@ -7005,22 +7005,22 @@
     </row>
     <row r="72" spans="1:43">
       <c r="A72" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E72">
         <v>70</v>
       </c>
       <c r="G72" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I72" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J72" t="s">
         <v>158</v>
@@ -7088,25 +7088,25 @@
     </row>
     <row r="73" spans="1:43">
       <c r="A73" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E73">
         <v>10</v>
       </c>
       <c r="G73" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I73" t="s">
         <v>129</v>
       </c>
       <c r="J73" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K73">
         <v>1</v>
@@ -7171,19 +7171,19 @@
     </row>
     <row r="74" spans="1:43">
       <c r="A74" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E74">
         <v>20</v>
       </c>
       <c r="G74" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I74" t="s">
         <v>130</v>
@@ -7254,19 +7254,19 @@
     </row>
     <row r="75" spans="1:43">
       <c r="A75" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E75">
         <v>10</v>
       </c>
       <c r="G75" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H75" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I75" t="s">
         <v>131</v>
@@ -7337,19 +7337,19 @@
     </row>
     <row r="76" spans="1:43">
       <c r="A76" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E76">
         <v>20</v>
       </c>
       <c r="G76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H76" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I76" t="s">
         <v>130</v>
@@ -7420,22 +7420,22 @@
     </row>
     <row r="77" spans="1:43">
       <c r="A77" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E77">
         <v>70</v>
       </c>
       <c r="G77" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H77" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I77" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J77" t="s">
         <v>158</v>
@@ -7503,22 +7503,22 @@
     </row>
     <row r="78" spans="1:43">
       <c r="A78" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E78">
         <v>60</v>
       </c>
       <c r="G78" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H78" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J78" t="s">
         <v>158</v>
@@ -7586,22 +7586,22 @@
     </row>
     <row r="79" spans="1:43">
       <c r="A79" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E79">
         <v>70</v>
       </c>
       <c r="G79" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H79" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I79" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J79" t="s">
         <v>158</v>
@@ -7669,22 +7669,22 @@
     </row>
     <row r="80" spans="1:43">
       <c r="A80" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E80">
         <v>60</v>
       </c>
       <c r="G80" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H80" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I80" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J80" t="s">
         <v>158</v>
@@ -7752,22 +7752,22 @@
     </row>
     <row r="81" spans="1:43">
       <c r="A81" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E81">
         <v>60</v>
       </c>
       <c r="G81" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H81" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I81" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J81" t="s">
         <v>158</v>
@@ -8000,16 +8000,16 @@
         <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -8110,16 +8110,16 @@
         <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3">
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -8220,16 +8220,16 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -8330,16 +8330,16 @@
         <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E5">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -8440,16 +8440,16 @@
         <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E6">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E7">
         <v>20</v>
@@ -8660,7 +8660,7 @@
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E8">
         <v>30</v>
@@ -8770,7 +8770,7 @@
         <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E9">
         <v>40</v>
@@ -8880,7 +8880,7 @@
         <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E10">
         <v>50</v>
@@ -8990,16 +8990,16 @@
         <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E11">
         <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -9100,16 +9100,16 @@
         <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E12">
         <v>70</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -9210,16 +9210,16 @@
         <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E13">
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E14">
         <v>20</v>
@@ -9430,7 +9430,7 @@
         <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E15">
         <v>30</v>
@@ -9540,7 +9540,7 @@
         <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E16">
         <v>40</v>
@@ -9650,7 +9650,7 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E17">
         <v>50</v>
@@ -9760,16 +9760,16 @@
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E18">
         <v>60</v>
       </c>
       <c r="G18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -9870,16 +9870,16 @@
         <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E19">
         <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -9980,16 +9980,16 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E20">
         <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -10090,16 +10090,16 @@
         <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E21">
         <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -10200,7 +10200,7 @@
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E22">
         <v>20</v>
@@ -10310,7 +10310,7 @@
         <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E23">
         <v>30</v>
@@ -10420,7 +10420,7 @@
         <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E24">
         <v>40</v>
@@ -10530,16 +10530,16 @@
         <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E25">
         <v>50</v>
       </c>
       <c r="G25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -10640,16 +10640,16 @@
         <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E26">
         <v>60</v>
       </c>
       <c r="G26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -10750,16 +10750,16 @@
         <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E27">
         <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -10860,7 +10860,7 @@
         <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E28">
         <v>20</v>
@@ -10970,7 +10970,7 @@
         <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E29">
         <v>30</v>
@@ -11080,7 +11080,7 @@
         <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E30">
         <v>40</v>
@@ -11190,16 +11190,16 @@
         <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E31">
         <v>50</v>
       </c>
       <c r="G31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -11300,16 +11300,16 @@
         <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E32">
         <v>60</v>
       </c>
       <c r="G32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -11410,16 +11410,16 @@
         <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E33">
         <v>10</v>
       </c>
       <c r="G33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -11520,16 +11520,16 @@
         <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E34">
         <v>10</v>
       </c>
       <c r="G34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -11630,7 +11630,7 @@
         <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E35">
         <v>20</v>
@@ -11740,7 +11740,7 @@
         <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E36">
         <v>30</v>
@@ -11850,7 +11850,7 @@
         <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E37">
         <v>40</v>
@@ -11960,7 +11960,7 @@
         <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E38">
         <v>50</v>
@@ -12070,16 +12070,16 @@
         <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E39">
         <v>60</v>
       </c>
       <c r="G39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -12180,16 +12180,16 @@
         <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>70</v>
       </c>
       <c r="G40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -12290,16 +12290,16 @@
         <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E41">
         <v>10</v>
       </c>
       <c r="G41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -12400,7 +12400,7 @@
         <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E42">
         <v>20</v>
@@ -12510,7 +12510,7 @@
         <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E43">
         <v>30</v>
@@ -12620,7 +12620,7 @@
         <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E44">
         <v>40</v>
@@ -12730,16 +12730,16 @@
         <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E45">
         <v>50</v>
       </c>
       <c r="G45" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H45" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -12840,16 +12840,16 @@
         <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E46">
         <v>60</v>
       </c>
       <c r="G46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -12950,16 +12950,16 @@
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E47">
         <v>10</v>
       </c>
       <c r="G47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -13060,7 +13060,7 @@
         <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E48">
         <v>20</v>
@@ -13170,7 +13170,7 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E49">
         <v>30</v>
@@ -13280,7 +13280,7 @@
         <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E50">
         <v>40</v>
@@ -13390,7 +13390,7 @@
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E51">
         <v>50</v>
@@ -13500,7 +13500,7 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E52">
         <v>60</v>
@@ -13610,16 +13610,16 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E53">
         <v>70</v>
       </c>
       <c r="G53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H53" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -13720,16 +13720,16 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E54">
         <v>80</v>
       </c>
       <c r="G54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -13830,16 +13830,16 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E55">
         <v>10</v>
       </c>
       <c r="G55" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -13940,7 +13940,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E56">
         <v>20</v>
@@ -14050,7 +14050,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E57">
         <v>30</v>
@@ -14160,7 +14160,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E58">
         <v>40</v>
@@ -14270,16 +14270,16 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E59">
         <v>50</v>
       </c>
       <c r="G59" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H59" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -14380,16 +14380,16 @@
         <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E60">
         <v>60</v>
       </c>
       <c r="G60" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -14490,16 +14490,16 @@
         <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E61">
         <v>10</v>
       </c>
       <c r="G61" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H61" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -14600,16 +14600,16 @@
         <v>57</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E62">
         <v>20</v>
       </c>
       <c r="G62" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H62" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -14710,16 +14710,16 @@
         <v>57</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E63">
         <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -14820,16 +14820,16 @@
         <v>58</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E64">
         <v>10</v>
       </c>
       <c r="G64" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H64" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -14930,7 +14930,7 @@
         <v>58</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E65">
         <v>20</v>
@@ -15040,7 +15040,7 @@
         <v>58</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E66">
         <v>30</v>
@@ -15150,7 +15150,7 @@
         <v>58</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E67">
         <v>40</v>
@@ -15257,19 +15257,19 @@
     </row>
     <row r="68" spans="1:49">
       <c r="A68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E68">
         <v>10</v>
       </c>
       <c r="G68" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -15367,10 +15367,10 @@
     </row>
     <row r="69" spans="1:49">
       <c r="A69" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E69">
         <v>20</v>
@@ -15477,10 +15477,10 @@
     </row>
     <row r="70" spans="1:49">
       <c r="A70" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E70">
         <v>30</v>
@@ -15587,10 +15587,10 @@
     </row>
     <row r="71" spans="1:49">
       <c r="A71" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E71">
         <v>40</v>
@@ -15697,19 +15697,19 @@
     </row>
     <row r="72" spans="1:49">
       <c r="A72" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E72">
         <v>10</v>
       </c>
       <c r="G72" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H72" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -15807,10 +15807,10 @@
     </row>
     <row r="73" spans="1:49">
       <c r="A73" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E73">
         <v>20</v>
@@ -15917,10 +15917,10 @@
     </row>
     <row r="74" spans="1:49">
       <c r="A74" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E74">
         <v>30</v>
@@ -16027,10 +16027,10 @@
     </row>
     <row r="75" spans="1:49">
       <c r="A75" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E75">
         <v>40</v>
@@ -16137,19 +16137,19 @@
     </row>
     <row r="76" spans="1:49">
       <c r="A76" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E76">
         <v>50</v>
       </c>
       <c r="G76" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H76" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -16247,19 +16247,19 @@
     </row>
     <row r="77" spans="1:49">
       <c r="A77" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E77">
         <v>60</v>
       </c>
       <c r="G77" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H77" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -16357,19 +16357,19 @@
     </row>
     <row r="78" spans="1:49">
       <c r="A78" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E78">
         <v>10</v>
       </c>
       <c r="G78" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H78" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -16467,10 +16467,10 @@
     </row>
     <row r="79" spans="1:49">
       <c r="A79" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E79">
         <v>20</v>
@@ -16577,10 +16577,10 @@
     </row>
     <row r="80" spans="1:49">
       <c r="A80" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E80">
         <v>30</v>
@@ -16687,10 +16687,10 @@
     </row>
     <row r="81" spans="1:49">
       <c r="A81" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B81" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E81">
         <v>40</v>
@@ -16797,10 +16797,10 @@
     </row>
     <row r="82" spans="1:49">
       <c r="A82" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B82" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E82">
         <v>50</v>
@@ -16907,19 +16907,19 @@
     </row>
     <row r="83" spans="1:49">
       <c r="A83" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B83" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E83">
         <v>60</v>
       </c>
       <c r="G83" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H83" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -17017,19 +17017,19 @@
     </row>
     <row r="84" spans="1:49">
       <c r="A84" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B84" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E84">
         <v>70</v>
       </c>
       <c r="G84" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H84" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -17127,19 +17127,19 @@
     </row>
     <row r="85" spans="1:49">
       <c r="A85" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B85" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E85">
         <v>10</v>
       </c>
       <c r="G85" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H85" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -17237,19 +17237,19 @@
     </row>
     <row r="86" spans="1:49">
       <c r="A86" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B86" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E86">
         <v>20</v>
       </c>
       <c r="G86" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H86" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -17347,19 +17347,19 @@
     </row>
     <row r="87" spans="1:49">
       <c r="A87" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B87" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E87">
         <v>10</v>
       </c>
       <c r="G87" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H87" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -17457,19 +17457,19 @@
     </row>
     <row r="88" spans="1:49">
       <c r="A88" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B88" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E88">
         <v>20</v>
       </c>
       <c r="G88" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H88" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -17567,19 +17567,19 @@
     </row>
     <row r="89" spans="1:49">
       <c r="A89" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B89" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E89">
         <v>10</v>
       </c>
       <c r="G89" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H89" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -17677,19 +17677,19 @@
     </row>
     <row r="90" spans="1:49">
       <c r="A90" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B90" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E90">
         <v>20</v>
       </c>
       <c r="G90" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H90" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -17787,10 +17787,10 @@
     </row>
     <row r="91" spans="1:49">
       <c r="A91" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B91" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E91">
         <v>30</v>
@@ -17897,10 +17897,10 @@
     </row>
     <row r="92" spans="1:49">
       <c r="A92" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B92" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E92">
         <v>40</v>
@@ -18007,10 +18007,10 @@
     </row>
     <row r="93" spans="1:49">
       <c r="A93" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B93" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E93">
         <v>50</v>
@@ -18117,19 +18117,19 @@
     </row>
     <row r="94" spans="1:49">
       <c r="A94" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B94" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E94">
         <v>60</v>
       </c>
       <c r="G94" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H94" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -18227,19 +18227,19 @@
     </row>
     <row r="95" spans="1:49">
       <c r="A95" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B95" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E95">
         <v>70</v>
       </c>
       <c r="G95" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H95" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -18337,19 +18337,19 @@
     </row>
     <row r="96" spans="1:49">
       <c r="A96" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B96" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E96">
         <v>10</v>
       </c>
       <c r="G96" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H96" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -18447,10 +18447,10 @@
     </row>
     <row r="97" spans="1:49">
       <c r="A97" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B97" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E97">
         <v>20</v>
@@ -18557,10 +18557,10 @@
     </row>
     <row r="98" spans="1:49">
       <c r="A98" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B98" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E98">
         <v>30</v>
@@ -18667,10 +18667,10 @@
     </row>
     <row r="99" spans="1:49">
       <c r="A99" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B99" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E99">
         <v>40</v>
@@ -18777,19 +18777,19 @@
     </row>
     <row r="100" spans="1:49">
       <c r="A100" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B100" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E100">
         <v>50</v>
       </c>
       <c r="G100" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H100" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -18887,19 +18887,19 @@
     </row>
     <row r="101" spans="1:49">
       <c r="A101" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B101" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E101">
         <v>60</v>
       </c>
       <c r="G101" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H101" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -18997,19 +18997,19 @@
     </row>
     <row r="102" spans="1:49">
       <c r="A102" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B102" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E102">
         <v>10</v>
       </c>
       <c r="G102" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H102" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -19107,19 +19107,19 @@
     </row>
     <row r="103" spans="1:49">
       <c r="A103" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B103" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E103">
         <v>20</v>
       </c>
       <c r="G103" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H103" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -19217,10 +19217,10 @@
     </row>
     <row r="104" spans="1:49">
       <c r="A104" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B104" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E104">
         <v>30</v>
@@ -19327,10 +19327,10 @@
     </row>
     <row r="105" spans="1:49">
       <c r="A105" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B105" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E105">
         <v>40</v>
@@ -19437,10 +19437,10 @@
     </row>
     <row r="106" spans="1:49">
       <c r="A106" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B106" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E106">
         <v>50</v>
@@ -19547,19 +19547,19 @@
     </row>
     <row r="107" spans="1:49">
       <c r="A107" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B107" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E107">
         <v>60</v>
       </c>
       <c r="G107" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H107" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -19657,19 +19657,19 @@
     </row>
     <row r="108" spans="1:49">
       <c r="A108" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B108" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E108">
         <v>70</v>
       </c>
       <c r="G108" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H108" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -19767,19 +19767,19 @@
     </row>
     <row r="109" spans="1:49">
       <c r="A109" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B109" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E109">
         <v>10</v>
       </c>
       <c r="G109" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H109" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -19877,10 +19877,10 @@
     </row>
     <row r="110" spans="1:49">
       <c r="A110" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B110" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E110">
         <v>20</v>
@@ -19987,10 +19987,10 @@
     </row>
     <row r="111" spans="1:49">
       <c r="A111" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B111" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E111">
         <v>30</v>
@@ -20097,10 +20097,10 @@
     </row>
     <row r="112" spans="1:49">
       <c r="A112" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B112" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E112">
         <v>40</v>
@@ -20207,19 +20207,19 @@
     </row>
     <row r="113" spans="1:49">
       <c r="A113" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B113" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E113">
         <v>50</v>
       </c>
       <c r="G113" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H113" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -20317,19 +20317,19 @@
     </row>
     <row r="114" spans="1:49">
       <c r="A114" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B114" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E114">
         <v>60</v>
       </c>
       <c r="G114" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H114" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -20427,19 +20427,19 @@
     </row>
     <row r="115" spans="1:49">
       <c r="A115" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B115" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E115">
         <v>10</v>
       </c>
       <c r="G115" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H115" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -20537,10 +20537,10 @@
     </row>
     <row r="116" spans="1:49">
       <c r="A116" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B116" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E116">
         <v>20</v>
@@ -20647,10 +20647,10 @@
     </row>
     <row r="117" spans="1:49">
       <c r="A117" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B117" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E117">
         <v>30</v>
@@ -20757,10 +20757,10 @@
     </row>
     <row r="118" spans="1:49">
       <c r="A118" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B118" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E118">
         <v>40</v>
@@ -20867,19 +20867,19 @@
     </row>
     <row r="119" spans="1:49">
       <c r="A119" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B119" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E119">
         <v>50</v>
       </c>
       <c r="G119" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H119" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -20977,19 +20977,19 @@
     </row>
     <row r="120" spans="1:49">
       <c r="A120" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B120" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E120">
         <v>60</v>
       </c>
       <c r="G120" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H120" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I120">
         <v>0</v>

--- a/OpsAndMats/Model76E_Motor.xlsx
+++ b/OpsAndMats/Model76E_Motor.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2523" uniqueCount="232">
   <si>
     <t>Item</t>
   </si>
@@ -413,6 +413,12 @@
     <t>8033656-2A</t>
   </si>
   <si>
+    <t>9014122-3</t>
+  </si>
+  <si>
+    <t>9015200-1</t>
+  </si>
+  <si>
     <t>#TL22H200, timing belt pulley</t>
   </si>
   <si>
@@ -516,6 +522,12 @@
   </si>
   <si>
     <t>Belt guard</t>
+  </si>
+  <si>
+    <t>1 1/4 x 1 1/4 x 3/16" HRS angle</t>
+  </si>
+  <si>
+    <t>2" x 9/16 x 3/16 HRS Channel</t>
   </si>
   <si>
     <t>Unit</t>
@@ -1056,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ81"/>
+  <dimension ref="A1:AQ86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1231,10 +1243,10 @@
         <v>1</v>
       </c>
       <c r="T2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -1314,10 +1326,10 @@
         <v>1</v>
       </c>
       <c r="T3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -1397,10 +1409,10 @@
         <v>1</v>
       </c>
       <c r="T4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U4" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1480,10 +1492,10 @@
         <v>1</v>
       </c>
       <c r="T5" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U5" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1563,10 +1575,10 @@
         <v>2</v>
       </c>
       <c r="T6" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U6" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1646,10 +1658,10 @@
         <v>1</v>
       </c>
       <c r="T7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -1729,10 +1741,10 @@
         <v>4</v>
       </c>
       <c r="T8" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U8" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1812,10 +1824,10 @@
         <v>2</v>
       </c>
       <c r="T9" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U9" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1895,10 +1907,10 @@
         <v>4</v>
       </c>
       <c r="T10" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U10" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1978,10 +1990,10 @@
         <v>4</v>
       </c>
       <c r="T11" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U11" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -2061,10 +2073,10 @@
         <v>1</v>
       </c>
       <c r="T12" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U12" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -2144,10 +2156,10 @@
         <v>1</v>
       </c>
       <c r="T13" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U13" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -2227,10 +2239,10 @@
         <v>1</v>
       </c>
       <c r="T14" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U14" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -2310,10 +2322,10 @@
         <v>1</v>
       </c>
       <c r="T15" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U15" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -2393,10 +2405,10 @@
         <v>1</v>
       </c>
       <c r="T16" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U16" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -2476,10 +2488,10 @@
         <v>1</v>
       </c>
       <c r="T17" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U17" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -2541,7 +2553,7 @@
         <v>96</v>
       </c>
       <c r="J18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K18">
         <v>17</v>
@@ -2559,10 +2571,10 @@
         <v>1</v>
       </c>
       <c r="T18" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U18" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -2624,7 +2636,7 @@
         <v>97</v>
       </c>
       <c r="J19" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K19">
         <v>18</v>
@@ -2642,10 +2654,10 @@
         <v>1</v>
       </c>
       <c r="T19" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U19" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -2707,7 +2719,7 @@
         <v>98</v>
       </c>
       <c r="J20" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K20">
         <v>19</v>
@@ -2725,10 +2737,10 @@
         <v>1</v>
       </c>
       <c r="T20" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U20" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -2790,7 +2802,7 @@
         <v>99</v>
       </c>
       <c r="J21" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K21">
         <v>20</v>
@@ -2808,10 +2820,10 @@
         <v>4</v>
       </c>
       <c r="T21" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U21" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -2873,7 +2885,7 @@
         <v>100</v>
       </c>
       <c r="J22" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K22">
         <v>21</v>
@@ -2891,10 +2903,10 @@
         <v>6</v>
       </c>
       <c r="T22" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U22" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -2956,7 +2968,7 @@
         <v>101</v>
       </c>
       <c r="J23" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23">
         <v>22</v>
@@ -2974,10 +2986,10 @@
         <v>32</v>
       </c>
       <c r="T23" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U23" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -3039,7 +3051,7 @@
         <v>102</v>
       </c>
       <c r="J24" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K24">
         <v>23</v>
@@ -3057,10 +3069,10 @@
         <v>14</v>
       </c>
       <c r="T24" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U24" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -3122,7 +3134,7 @@
         <v>103</v>
       </c>
       <c r="J25" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K25">
         <v>24</v>
@@ -3140,10 +3152,10 @@
         <v>10</v>
       </c>
       <c r="T25" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U25" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -3205,7 +3217,7 @@
         <v>104</v>
       </c>
       <c r="J26" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K26">
         <v>25</v>
@@ -3223,10 +3235,10 @@
         <v>24</v>
       </c>
       <c r="T26" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U26" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -3288,7 +3300,7 @@
         <v>105</v>
       </c>
       <c r="J27" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K27">
         <v>26</v>
@@ -3306,10 +3318,10 @@
         <v>14</v>
       </c>
       <c r="T27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U27" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -3371,7 +3383,7 @@
         <v>106</v>
       </c>
       <c r="J28" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K28">
         <v>27</v>
@@ -3389,10 +3401,10 @@
         <v>10</v>
       </c>
       <c r="T28" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -3454,7 +3466,7 @@
         <v>107</v>
       </c>
       <c r="J29" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K29">
         <v>28</v>
@@ -3472,10 +3484,10 @@
         <v>4</v>
       </c>
       <c r="T29" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U29" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -3537,7 +3549,7 @@
         <v>108</v>
       </c>
       <c r="J30" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K30">
         <v>29</v>
@@ -3555,10 +3567,10 @@
         <v>4</v>
       </c>
       <c r="T30" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U30" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -3620,7 +3632,7 @@
         <v>109</v>
       </c>
       <c r="J31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K31">
         <v>30</v>
@@ -3638,10 +3650,10 @@
         <v>8</v>
       </c>
       <c r="T31" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U31" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -3703,7 +3715,7 @@
         <v>110</v>
       </c>
       <c r="J32" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K32">
         <v>31</v>
@@ -3721,10 +3733,10 @@
         <v>12</v>
       </c>
       <c r="T32" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U32" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -3786,7 +3798,7 @@
         <v>111</v>
       </c>
       <c r="J33" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K33">
         <v>32</v>
@@ -3804,10 +3816,10 @@
         <v>6</v>
       </c>
       <c r="T33" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U33" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -3869,7 +3881,7 @@
         <v>112</v>
       </c>
       <c r="J34" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K34">
         <v>33</v>
@@ -3887,10 +3899,10 @@
         <v>1</v>
       </c>
       <c r="T34" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U34" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -3952,7 +3964,7 @@
         <v>113</v>
       </c>
       <c r="J35" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K35">
         <v>34</v>
@@ -3970,10 +3982,10 @@
         <v>4</v>
       </c>
       <c r="T35" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U35" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -4035,7 +4047,7 @@
         <v>114</v>
       </c>
       <c r="J36" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K36">
         <v>35</v>
@@ -4053,10 +4065,10 @@
         <v>4</v>
       </c>
       <c r="T36" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U36" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -4118,7 +4130,7 @@
         <v>115</v>
       </c>
       <c r="J37" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K37">
         <v>36</v>
@@ -4136,10 +4148,10 @@
         <v>4</v>
       </c>
       <c r="T37" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U37" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -4201,7 +4213,7 @@
         <v>116</v>
       </c>
       <c r="J38" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K38">
         <v>37</v>
@@ -4219,10 +4231,10 @@
         <v>1</v>
       </c>
       <c r="T38" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U38" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V38">
         <v>0</v>
@@ -4284,7 +4296,7 @@
         <v>117</v>
       </c>
       <c r="J39" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K39">
         <v>38</v>
@@ -4302,10 +4314,10 @@
         <v>6</v>
       </c>
       <c r="T39" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U39" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V39">
         <v>0</v>
@@ -4367,7 +4379,7 @@
         <v>118</v>
       </c>
       <c r="J40" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K40">
         <v>39</v>
@@ -4385,10 +4397,10 @@
         <v>4</v>
       </c>
       <c r="T40" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U40" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -4468,10 +4480,10 @@
         <v>1</v>
       </c>
       <c r="T41" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U41" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V41">
         <v>0</v>
@@ -4533,7 +4545,7 @@
         <v>119</v>
       </c>
       <c r="J42" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -4551,10 +4563,10 @@
         <v>1</v>
       </c>
       <c r="T42" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U42" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V42">
         <v>0</v>
@@ -4634,10 +4646,10 @@
         <v>1</v>
       </c>
       <c r="T43" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U43" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V43">
         <v>0</v>
@@ -4699,7 +4711,7 @@
         <v>120</v>
       </c>
       <c r="J44" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -4717,10 +4729,10 @@
         <v>1</v>
       </c>
       <c r="T44" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U44" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -4782,7 +4794,7 @@
         <v>121</v>
       </c>
       <c r="J45" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -4800,10 +4812,10 @@
         <v>30</v>
       </c>
       <c r="T45" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U45" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="V45">
         <v>0</v>
@@ -4883,10 +4895,10 @@
         <v>1</v>
       </c>
       <c r="T46" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U46" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V46">
         <v>0</v>
@@ -4948,7 +4960,7 @@
         <v>122</v>
       </c>
       <c r="J47" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -4966,10 +4978,10 @@
         <v>0.0625</v>
       </c>
       <c r="T47" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U47" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="V47">
         <v>0</v>
@@ -5049,10 +5061,10 @@
         <v>1</v>
       </c>
       <c r="T48" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U48" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V48">
         <v>0</v>
@@ -5114,7 +5126,7 @@
         <v>122</v>
       </c>
       <c r="J49" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -5132,10 +5144,10 @@
         <v>0.0625</v>
       </c>
       <c r="T49" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U49" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="V49">
         <v>0</v>
@@ -5197,7 +5209,7 @@
         <v>123</v>
       </c>
       <c r="J50" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -5215,10 +5227,10 @@
         <v>28.5</v>
       </c>
       <c r="T50" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U50" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="V50">
         <v>0</v>
@@ -5298,10 +5310,10 @@
         <v>1</v>
       </c>
       <c r="T51" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U51" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V51">
         <v>0</v>
@@ -5363,7 +5375,7 @@
         <v>122</v>
       </c>
       <c r="J52" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -5381,10 +5393,10 @@
         <v>0.0625</v>
       </c>
       <c r="T52" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U52" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="V52">
         <v>0</v>
@@ -5464,10 +5476,10 @@
         <v>1</v>
       </c>
       <c r="T53" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U53" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V53">
         <v>0</v>
@@ -5529,7 +5541,7 @@
         <v>122</v>
       </c>
       <c r="J54" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -5547,10 +5559,10 @@
         <v>0.0625</v>
       </c>
       <c r="T54" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U54" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="V54">
         <v>0</v>
@@ -5612,7 +5624,7 @@
         <v>124</v>
       </c>
       <c r="J55" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -5630,10 +5642,10 @@
         <v>16.25</v>
       </c>
       <c r="T55" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U55" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="V55">
         <v>0</v>
@@ -5713,10 +5725,10 @@
         <v>1</v>
       </c>
       <c r="T56" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U56" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V56">
         <v>0</v>
@@ -5778,7 +5790,7 @@
         <v>122</v>
       </c>
       <c r="J57" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K57">
         <v>1</v>
@@ -5796,10 +5808,10 @@
         <v>0.0625</v>
       </c>
       <c r="T57" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U57" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="V57">
         <v>0</v>
@@ -5879,10 +5891,10 @@
         <v>1</v>
       </c>
       <c r="T58" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U58" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V58">
         <v>0</v>
@@ -5944,7 +5956,7 @@
         <v>122</v>
       </c>
       <c r="J59" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K59">
         <v>1</v>
@@ -5962,10 +5974,10 @@
         <v>0.0625</v>
       </c>
       <c r="T59" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U59" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="V59">
         <v>0</v>
@@ -6045,10 +6057,10 @@
         <v>1</v>
       </c>
       <c r="T60" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U60" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V60">
         <v>0</v>
@@ -6110,7 +6122,7 @@
         <v>122</v>
       </c>
       <c r="J61" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -6128,10 +6140,10 @@
         <v>0.0625</v>
       </c>
       <c r="T61" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U61" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="V61">
         <v>0</v>
@@ -6193,7 +6205,7 @@
         <v>125</v>
       </c>
       <c r="J62" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K62">
         <v>1</v>
@@ -6211,10 +6223,10 @@
         <v>2.5</v>
       </c>
       <c r="T62" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U62" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="V62">
         <v>0</v>
@@ -6276,7 +6288,7 @@
         <v>122</v>
       </c>
       <c r="J63" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K63">
         <v>1</v>
@@ -6294,10 +6306,10 @@
         <v>0.0625</v>
       </c>
       <c r="T63" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U63" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="V63">
         <v>0</v>
@@ -6377,10 +6389,10 @@
         <v>1</v>
       </c>
       <c r="T64" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U64" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V64">
         <v>0</v>
@@ -6460,10 +6472,10 @@
         <v>1</v>
       </c>
       <c r="T65" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U65" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V65">
         <v>0</v>
@@ -6525,7 +6537,7 @@
         <v>122</v>
       </c>
       <c r="J66" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K66">
         <v>1</v>
@@ -6543,10 +6555,10 @@
         <v>0.0625</v>
       </c>
       <c r="T66" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U66" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="V66">
         <v>0</v>
@@ -6608,7 +6620,7 @@
         <v>126</v>
       </c>
       <c r="J67" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K67">
         <v>1</v>
@@ -6626,10 +6638,10 @@
         <v>7.8125</v>
       </c>
       <c r="T67" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U67" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="V67">
         <v>0</v>
@@ -6691,7 +6703,7 @@
         <v>126</v>
       </c>
       <c r="J68" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -6709,10 +6721,10 @@
         <v>4.3125</v>
       </c>
       <c r="T68" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U68" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="V68">
         <v>0</v>
@@ -6774,7 +6786,7 @@
         <v>127</v>
       </c>
       <c r="J69" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K69">
         <v>1</v>
@@ -6792,10 +6804,10 @@
         <v>2</v>
       </c>
       <c r="T69" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U69" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="V69">
         <v>0</v>
@@ -6857,7 +6869,7 @@
         <v>122</v>
       </c>
       <c r="J70" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K70">
         <v>1</v>
@@ -6875,10 +6887,10 @@
         <v>0.0625</v>
       </c>
       <c r="T70" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U70" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="V70">
         <v>0</v>
@@ -6940,7 +6952,7 @@
         <v>128</v>
       </c>
       <c r="J71" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K71">
         <v>1</v>
@@ -6958,10 +6970,10 @@
         <v>4.5</v>
       </c>
       <c r="T71" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U71" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="V71">
         <v>0</v>
@@ -7023,7 +7035,7 @@
         <v>122</v>
       </c>
       <c r="J72" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K72">
         <v>1</v>
@@ -7041,10 +7053,10 @@
         <v>0.0625</v>
       </c>
       <c r="T72" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U72" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="V72">
         <v>0</v>
@@ -7124,10 +7136,10 @@
         <v>1</v>
       </c>
       <c r="T73" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U73" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V73">
         <v>0</v>
@@ -7189,7 +7201,7 @@
         <v>130</v>
       </c>
       <c r="J74" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K74">
         <v>1</v>
@@ -7207,10 +7219,10 @@
         <v>0.125</v>
       </c>
       <c r="T74" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U74" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="V74">
         <v>0</v>
@@ -7272,7 +7284,7 @@
         <v>131</v>
       </c>
       <c r="J75" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K75">
         <v>1</v>
@@ -7290,10 +7302,10 @@
         <v>1</v>
       </c>
       <c r="T75" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U75" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="V75">
         <v>0</v>
@@ -7355,7 +7367,7 @@
         <v>130</v>
       </c>
       <c r="J76" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K76">
         <v>1</v>
@@ -7373,10 +7385,10 @@
         <v>0.125</v>
       </c>
       <c r="T76" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U76" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="V76">
         <v>0</v>
@@ -7426,19 +7438,19 @@
         <v>81</v>
       </c>
       <c r="E77">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I77" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J77" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="K77">
         <v>1</v>
@@ -7453,13 +7465,13 @@
         <v>8</v>
       </c>
       <c r="S77">
-        <v>0.0625</v>
+        <v>15.25</v>
       </c>
       <c r="T77" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U77" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="V77">
         <v>0</v>
@@ -7503,13 +7515,13 @@
     </row>
     <row r="78" spans="1:43">
       <c r="A78" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E78">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G78" t="s">
         <v>88</v>
@@ -7521,7 +7533,7 @@
         <v>122</v>
       </c>
       <c r="J78" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K78">
         <v>1</v>
@@ -7539,10 +7551,10 @@
         <v>0.0625</v>
       </c>
       <c r="T78" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U78" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="V78">
         <v>0</v>
@@ -7586,25 +7598,25 @@
     </row>
     <row r="79" spans="1:43">
       <c r="A79" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E79">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G79" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I79" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J79" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="K79">
         <v>1</v>
@@ -7619,13 +7631,13 @@
         <v>8</v>
       </c>
       <c r="S79">
-        <v>0.0625</v>
+        <v>15.25</v>
       </c>
       <c r="T79" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U79" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="V79">
         <v>0</v>
@@ -7669,10 +7681,10 @@
     </row>
     <row r="80" spans="1:43">
       <c r="A80" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E80">
         <v>60</v>
@@ -7687,7 +7699,7 @@
         <v>122</v>
       </c>
       <c r="J80" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K80">
         <v>1</v>
@@ -7705,10 +7717,10 @@
         <v>0.0625</v>
       </c>
       <c r="T80" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="U80" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="V80">
         <v>0</v>
@@ -7752,25 +7764,25 @@
     </row>
     <row r="81" spans="1:43">
       <c r="A81" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E81">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G81" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H81" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I81" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="J81" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -7785,51 +7797,466 @@
         <v>8</v>
       </c>
       <c r="S81">
+        <v>18.75</v>
+      </c>
+      <c r="T81" t="s">
+        <v>171</v>
+      </c>
+      <c r="U81" t="s">
+        <v>173</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <v>1</v>
+      </c>
+      <c r="AF81">
+        <v>1</v>
+      </c>
+      <c r="AG81">
+        <v>0</v>
+      </c>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
+      <c r="AL81">
+        <v>0</v>
+      </c>
+      <c r="AM81">
+        <v>0</v>
+      </c>
+      <c r="AN81">
+        <v>0</v>
+      </c>
+      <c r="AO81">
+        <v>0</v>
+      </c>
+      <c r="AP81">
+        <v>0</v>
+      </c>
+      <c r="AQ81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:43">
+      <c r="A82" t="s">
+        <v>66</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+      <c r="E82">
+        <v>70</v>
+      </c>
+      <c r="G82" t="s">
+        <v>88</v>
+      </c>
+      <c r="H82" t="s">
+        <v>93</v>
+      </c>
+      <c r="I82" t="s">
+        <v>122</v>
+      </c>
+      <c r="J82" t="s">
+        <v>160</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="R82" t="s">
+        <v>8</v>
+      </c>
+      <c r="S82">
         <v>0.0625</v>
       </c>
-      <c r="T81" t="s">
-        <v>167</v>
-      </c>
-      <c r="U81" t="s">
-        <v>170</v>
-      </c>
-      <c r="V81">
-        <v>0</v>
-      </c>
-      <c r="W81">
-        <v>0</v>
-      </c>
-      <c r="AB81">
-        <v>1</v>
-      </c>
-      <c r="AF81">
-        <v>1</v>
-      </c>
-      <c r="AG81">
-        <v>0</v>
-      </c>
-      <c r="AH81">
-        <v>0</v>
-      </c>
-      <c r="AK81">
-        <v>0</v>
-      </c>
-      <c r="AL81">
-        <v>0</v>
-      </c>
-      <c r="AM81">
-        <v>0</v>
-      </c>
-      <c r="AN81">
-        <v>0</v>
-      </c>
-      <c r="AO81">
-        <v>0</v>
-      </c>
-      <c r="AP81">
-        <v>0</v>
-      </c>
-      <c r="AQ81">
+      <c r="T82" t="s">
+        <v>171</v>
+      </c>
+      <c r="U82" t="s">
+        <v>174</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <v>1</v>
+      </c>
+      <c r="AF82">
+        <v>1</v>
+      </c>
+      <c r="AG82">
+        <v>0</v>
+      </c>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AK82">
+        <v>0</v>
+      </c>
+      <c r="AL82">
+        <v>0</v>
+      </c>
+      <c r="AM82">
+        <v>0</v>
+      </c>
+      <c r="AN82">
+        <v>0</v>
+      </c>
+      <c r="AO82">
+        <v>0</v>
+      </c>
+      <c r="AP82">
+        <v>0</v>
+      </c>
+      <c r="AQ82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:43">
+      <c r="A83" t="s">
+        <v>67</v>
+      </c>
+      <c r="B83" t="s">
+        <v>84</v>
+      </c>
+      <c r="E83">
+        <v>10</v>
+      </c>
+      <c r="G83" t="s">
+        <v>87</v>
+      </c>
+      <c r="H83" t="s">
+        <v>92</v>
+      </c>
+      <c r="I83" t="s">
+        <v>132</v>
+      </c>
+      <c r="J83" t="s">
+        <v>169</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="R83" t="s">
+        <v>8</v>
+      </c>
+      <c r="S83">
+        <v>5.5</v>
+      </c>
+      <c r="T83" t="s">
+        <v>171</v>
+      </c>
+      <c r="U83" t="s">
+        <v>173</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <v>1</v>
+      </c>
+      <c r="AF83">
+        <v>1</v>
+      </c>
+      <c r="AG83">
+        <v>0</v>
+      </c>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AK83">
+        <v>0</v>
+      </c>
+      <c r="AL83">
+        <v>0</v>
+      </c>
+      <c r="AM83">
+        <v>0</v>
+      </c>
+      <c r="AN83">
+        <v>0</v>
+      </c>
+      <c r="AO83">
+        <v>0</v>
+      </c>
+      <c r="AP83">
+        <v>0</v>
+      </c>
+      <c r="AQ83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:43">
+      <c r="A84" t="s">
+        <v>67</v>
+      </c>
+      <c r="B84" t="s">
+        <v>84</v>
+      </c>
+      <c r="E84">
+        <v>60</v>
+      </c>
+      <c r="G84" t="s">
+        <v>88</v>
+      </c>
+      <c r="H84" t="s">
+        <v>93</v>
+      </c>
+      <c r="I84" t="s">
+        <v>122</v>
+      </c>
+      <c r="J84" t="s">
+        <v>160</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="R84" t="s">
+        <v>8</v>
+      </c>
+      <c r="S84">
+        <v>0.0625</v>
+      </c>
+      <c r="T84" t="s">
+        <v>171</v>
+      </c>
+      <c r="U84" t="s">
+        <v>174</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <v>1</v>
+      </c>
+      <c r="AF84">
+        <v>1</v>
+      </c>
+      <c r="AG84">
+        <v>0</v>
+      </c>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AK84">
+        <v>0</v>
+      </c>
+      <c r="AL84">
+        <v>0</v>
+      </c>
+      <c r="AM84">
+        <v>0</v>
+      </c>
+      <c r="AN84">
+        <v>0</v>
+      </c>
+      <c r="AO84">
+        <v>0</v>
+      </c>
+      <c r="AP84">
+        <v>0</v>
+      </c>
+      <c r="AQ84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:43">
+      <c r="A85" t="s">
+        <v>68</v>
+      </c>
+      <c r="B85" t="s">
+        <v>85</v>
+      </c>
+      <c r="E85">
+        <v>10</v>
+      </c>
+      <c r="G85" t="s">
+        <v>87</v>
+      </c>
+      <c r="H85" t="s">
+        <v>92</v>
+      </c>
+      <c r="I85" t="s">
+        <v>132</v>
+      </c>
+      <c r="J85" t="s">
+        <v>169</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="R85" t="s">
+        <v>8</v>
+      </c>
+      <c r="S85">
+        <v>22.625</v>
+      </c>
+      <c r="T85" t="s">
+        <v>171</v>
+      </c>
+      <c r="U85" t="s">
+        <v>173</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <v>1</v>
+      </c>
+      <c r="AF85">
+        <v>1</v>
+      </c>
+      <c r="AG85">
+        <v>0</v>
+      </c>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AK85">
+        <v>0</v>
+      </c>
+      <c r="AL85">
+        <v>0</v>
+      </c>
+      <c r="AM85">
+        <v>0</v>
+      </c>
+      <c r="AN85">
+        <v>0</v>
+      </c>
+      <c r="AO85">
+        <v>0</v>
+      </c>
+      <c r="AP85">
+        <v>0</v>
+      </c>
+      <c r="AQ85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:43">
+      <c r="A86" t="s">
+        <v>68</v>
+      </c>
+      <c r="B86" t="s">
+        <v>85</v>
+      </c>
+      <c r="E86">
+        <v>60</v>
+      </c>
+      <c r="G86" t="s">
+        <v>88</v>
+      </c>
+      <c r="H86" t="s">
+        <v>93</v>
+      </c>
+      <c r="I86" t="s">
+        <v>122</v>
+      </c>
+      <c r="J86" t="s">
+        <v>160</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="R86" t="s">
+        <v>8</v>
+      </c>
+      <c r="S86">
+        <v>0.0625</v>
+      </c>
+      <c r="T86" t="s">
+        <v>171</v>
+      </c>
+      <c r="U86" t="s">
+        <v>174</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <v>1</v>
+      </c>
+      <c r="AF86">
+        <v>1</v>
+      </c>
+      <c r="AG86">
+        <v>0</v>
+      </c>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AK86">
+        <v>0</v>
+      </c>
+      <c r="AL86">
+        <v>0</v>
+      </c>
+      <c r="AM86">
+        <v>0</v>
+      </c>
+      <c r="AN86">
+        <v>0</v>
+      </c>
+      <c r="AO86">
+        <v>0</v>
+      </c>
+      <c r="AP86">
+        <v>0</v>
+      </c>
+      <c r="AQ86">
         <v>0</v>
       </c>
     </row>
@@ -7872,61 +8299,61 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>23</v>
@@ -7935,64 +8362,64 @@
         <v>24</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:49">
@@ -8015,19 +8442,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L2">
         <v>0.5</v>
       </c>
       <c r="M2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P2">
         <v>0.5</v>
@@ -8060,28 +8487,28 @@
         <v>1</v>
       </c>
       <c r="AE2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH2" t="s">
         <v>0</v>
       </c>
       <c r="AI2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO2">
         <v>0</v>
@@ -8125,19 +8552,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L3">
         <v>0.5</v>
       </c>
       <c r="M3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P3">
         <v>0.5</v>
@@ -8170,28 +8597,28 @@
         <v>1</v>
       </c>
       <c r="AE3" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG3" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH3" t="s">
         <v>0</v>
       </c>
       <c r="AI3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK3" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN3" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -8235,19 +8662,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L4">
         <v>0.5</v>
       </c>
       <c r="M4" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P4">
         <v>0.5</v>
@@ -8280,28 +8707,28 @@
         <v>1</v>
       </c>
       <c r="AE4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH4" t="s">
         <v>0</v>
       </c>
       <c r="AI4" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK4" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN4" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -8345,19 +8772,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L5">
         <v>0.5</v>
       </c>
       <c r="M5" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P5">
         <v>0.5</v>
@@ -8390,28 +8817,28 @@
         <v>1</v>
       </c>
       <c r="AE5" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG5" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH5" t="s">
         <v>0</v>
       </c>
       <c r="AI5" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK5" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN5" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -8455,19 +8882,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L6">
         <v>0.5</v>
       </c>
       <c r="M6" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P6">
         <v>0.5</v>
@@ -8500,28 +8927,28 @@
         <v>1</v>
       </c>
       <c r="AE6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG6" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH6" t="s">
         <v>0</v>
       </c>
       <c r="AI6" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN6" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO6">
         <v>0</v>
@@ -8556,28 +8983,28 @@
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L7">
         <v>0.5</v>
       </c>
       <c r="M7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P7">
         <v>0.5</v>
@@ -8610,28 +9037,28 @@
         <v>1</v>
       </c>
       <c r="AE7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH7" t="s">
         <v>0</v>
       </c>
       <c r="AI7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO7">
         <v>0</v>
@@ -8666,28 +9093,28 @@
         <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H8" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L8">
         <v>0.5</v>
       </c>
       <c r="M8" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P8">
         <v>0.5</v>
@@ -8720,28 +9147,28 @@
         <v>1</v>
       </c>
       <c r="AE8" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG8" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH8" t="s">
         <v>0</v>
       </c>
       <c r="AI8" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK8" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN8" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO8">
         <v>0</v>
@@ -8776,28 +9203,28 @@
         <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H9" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L9">
         <v>0.5</v>
       </c>
       <c r="M9" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P9">
         <v>0.5</v>
@@ -8830,28 +9257,28 @@
         <v>1</v>
       </c>
       <c r="AE9" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG9" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH9" t="s">
         <v>0</v>
       </c>
       <c r="AI9" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK9" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN9" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO9">
         <v>0</v>
@@ -8886,28 +9313,28 @@
         <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H10" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L10">
         <v>0.5</v>
       </c>
       <c r="M10" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P10">
         <v>0.5</v>
@@ -8940,28 +9367,28 @@
         <v>1</v>
       </c>
       <c r="AE10" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG10" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH10" t="s">
         <v>0</v>
       </c>
       <c r="AI10" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK10" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN10" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -9005,19 +9432,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L11">
         <v>0.5</v>
       </c>
       <c r="M11" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P11">
         <v>0.5</v>
@@ -9050,28 +9477,28 @@
         <v>1</v>
       </c>
       <c r="AE11" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG11" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH11" t="s">
         <v>0</v>
       </c>
       <c r="AI11" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK11" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL11">
         <v>0</v>
       </c>
       <c r="AM11" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN11" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -9115,19 +9542,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L12">
         <v>0.5</v>
       </c>
       <c r="M12" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P12">
         <v>0.5</v>
@@ -9160,28 +9587,28 @@
         <v>1</v>
       </c>
       <c r="AE12" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG12" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH12" t="s">
         <v>0</v>
       </c>
       <c r="AI12" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK12" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN12" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO12">
         <v>0</v>
@@ -9225,19 +9652,19 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L13">
         <v>0.5</v>
       </c>
       <c r="M13" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P13">
         <v>0.5</v>
@@ -9270,28 +9697,28 @@
         <v>1</v>
       </c>
       <c r="AE13" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG13" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH13" t="s">
         <v>0</v>
       </c>
       <c r="AI13" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK13" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL13">
         <v>0</v>
       </c>
       <c r="AM13" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN13" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -9326,28 +9753,28 @@
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H14" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L14">
         <v>0.5</v>
       </c>
       <c r="M14" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P14">
         <v>0.5</v>
@@ -9380,28 +9807,28 @@
         <v>1</v>
       </c>
       <c r="AE14" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG14" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH14" t="s">
         <v>0</v>
       </c>
       <c r="AI14" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK14" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL14">
         <v>0</v>
       </c>
       <c r="AM14" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN14" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -9436,28 +9863,28 @@
         <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H15" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L15">
         <v>0.5</v>
       </c>
       <c r="M15" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P15">
         <v>0.5</v>
@@ -9490,28 +9917,28 @@
         <v>1</v>
       </c>
       <c r="AE15" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG15" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH15" t="s">
         <v>0</v>
       </c>
       <c r="AI15" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK15" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL15">
         <v>0</v>
       </c>
       <c r="AM15" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN15" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -9546,28 +9973,28 @@
         <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H16" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L16">
         <v>0.5</v>
       </c>
       <c r="M16" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P16">
         <v>0.5</v>
@@ -9600,28 +10027,28 @@
         <v>1</v>
       </c>
       <c r="AE16" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG16" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH16" t="s">
         <v>0</v>
       </c>
       <c r="AI16" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK16" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL16">
         <v>0</v>
       </c>
       <c r="AM16" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN16" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -9656,28 +10083,28 @@
         <v>50</v>
       </c>
       <c r="G17" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H17" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L17">
         <v>0.5</v>
       </c>
       <c r="M17" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P17">
         <v>0.5</v>
@@ -9710,28 +10137,28 @@
         <v>1</v>
       </c>
       <c r="AE17" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG17" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH17" t="s">
         <v>0</v>
       </c>
       <c r="AI17" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK17" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL17">
         <v>0</v>
       </c>
       <c r="AM17" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN17" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -9775,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L18">
         <v>0.5</v>
       </c>
       <c r="M18" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P18">
         <v>0.5</v>
@@ -9820,28 +10247,28 @@
         <v>1</v>
       </c>
       <c r="AE18" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG18" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH18" t="s">
         <v>0</v>
       </c>
       <c r="AI18" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK18" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL18">
         <v>0</v>
       </c>
       <c r="AM18" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN18" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -9885,19 +10312,19 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L19">
         <v>0.5</v>
       </c>
       <c r="M19" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P19">
         <v>0.5</v>
@@ -9930,28 +10357,28 @@
         <v>1</v>
       </c>
       <c r="AE19" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG19" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH19" t="s">
         <v>0</v>
       </c>
       <c r="AI19" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK19" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL19">
         <v>0</v>
       </c>
       <c r="AM19" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN19" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO19">
         <v>0</v>
@@ -9995,19 +10422,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L20">
         <v>0.5</v>
       </c>
       <c r="M20" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P20">
         <v>0.5</v>
@@ -10040,28 +10467,28 @@
         <v>1</v>
       </c>
       <c r="AE20" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG20" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH20" t="s">
         <v>0</v>
       </c>
       <c r="AI20" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK20" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL20">
         <v>0</v>
       </c>
       <c r="AM20" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN20" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO20">
         <v>0</v>
@@ -10105,19 +10532,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L21">
         <v>0.5</v>
       </c>
       <c r="M21" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P21">
         <v>0.5</v>
@@ -10150,28 +10577,28 @@
         <v>1</v>
       </c>
       <c r="AE21" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG21" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH21" t="s">
         <v>0</v>
       </c>
       <c r="AI21" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK21" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL21">
         <v>0</v>
       </c>
       <c r="AM21" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN21" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO21">
         <v>0</v>
@@ -10206,28 +10633,28 @@
         <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H22" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L22">
         <v>0.5</v>
       </c>
       <c r="M22" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P22">
         <v>0.5</v>
@@ -10260,28 +10687,28 @@
         <v>1</v>
       </c>
       <c r="AE22" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG22" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH22" t="s">
         <v>0</v>
       </c>
       <c r="AI22" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK22" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL22">
         <v>0</v>
       </c>
       <c r="AM22" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN22" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO22">
         <v>0</v>
@@ -10316,28 +10743,28 @@
         <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H23" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L23">
         <v>0.5</v>
       </c>
       <c r="M23" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P23">
         <v>0.5</v>
@@ -10370,28 +10797,28 @@
         <v>1</v>
       </c>
       <c r="AE23" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG23" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH23" t="s">
         <v>0</v>
       </c>
       <c r="AI23" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK23" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL23">
         <v>0</v>
       </c>
       <c r="AM23" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN23" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO23">
         <v>0</v>
@@ -10426,28 +10853,28 @@
         <v>40</v>
       </c>
       <c r="G24" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H24" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L24">
         <v>0.5</v>
       </c>
       <c r="M24" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P24">
         <v>0.5</v>
@@ -10480,28 +10907,28 @@
         <v>1</v>
       </c>
       <c r="AE24" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG24" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH24" t="s">
         <v>0</v>
       </c>
       <c r="AI24" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK24" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL24">
         <v>0</v>
       </c>
       <c r="AM24" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN24" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO24">
         <v>0</v>
@@ -10545,19 +10972,19 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L25">
         <v>0.5</v>
       </c>
       <c r="M25" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P25">
         <v>0.5</v>
@@ -10590,28 +11017,28 @@
         <v>1</v>
       </c>
       <c r="AE25" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG25" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH25" t="s">
         <v>0</v>
       </c>
       <c r="AI25" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK25" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL25">
         <v>0</v>
       </c>
       <c r="AM25" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN25" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO25">
         <v>0</v>
@@ -10655,19 +11082,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L26">
         <v>0.5</v>
       </c>
       <c r="M26" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P26">
         <v>0.5</v>
@@ -10700,28 +11127,28 @@
         <v>1</v>
       </c>
       <c r="AE26" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG26" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH26" t="s">
         <v>0</v>
       </c>
       <c r="AI26" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK26" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL26">
         <v>0</v>
       </c>
       <c r="AM26" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN26" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO26">
         <v>0</v>
@@ -10765,19 +11192,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L27">
         <v>0.5</v>
       </c>
       <c r="M27" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P27">
         <v>0.5</v>
@@ -10810,28 +11237,28 @@
         <v>1</v>
       </c>
       <c r="AE27" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG27" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH27" t="s">
         <v>0</v>
       </c>
       <c r="AI27" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK27" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL27">
         <v>0</v>
       </c>
       <c r="AM27" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN27" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -10866,28 +11293,28 @@
         <v>20</v>
       </c>
       <c r="G28" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H28" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L28">
         <v>0.5</v>
       </c>
       <c r="M28" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P28">
         <v>0.5</v>
@@ -10920,28 +11347,28 @@
         <v>1</v>
       </c>
       <c r="AE28" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG28" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH28" t="s">
         <v>0</v>
       </c>
       <c r="AI28" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK28" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL28">
         <v>0</v>
       </c>
       <c r="AM28" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN28" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO28">
         <v>0</v>
@@ -10976,28 +11403,28 @@
         <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H29" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L29">
         <v>0.5</v>
       </c>
       <c r="M29" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P29">
         <v>0.5</v>
@@ -11030,28 +11457,28 @@
         <v>1</v>
       </c>
       <c r="AE29" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG29" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH29" t="s">
         <v>0</v>
       </c>
       <c r="AI29" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK29" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL29">
         <v>0</v>
       </c>
       <c r="AM29" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN29" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO29">
         <v>0</v>
@@ -11086,28 +11513,28 @@
         <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H30" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L30">
         <v>0.5</v>
       </c>
       <c r="M30" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P30">
         <v>0.5</v>
@@ -11140,28 +11567,28 @@
         <v>1</v>
       </c>
       <c r="AE30" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG30" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH30" t="s">
         <v>0</v>
       </c>
       <c r="AI30" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK30" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL30">
         <v>0</v>
       </c>
       <c r="AM30" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN30" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO30">
         <v>0</v>
@@ -11205,19 +11632,19 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L31">
         <v>0.5</v>
       </c>
       <c r="M31" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P31">
         <v>0.5</v>
@@ -11250,28 +11677,28 @@
         <v>1</v>
       </c>
       <c r="AE31" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG31" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH31" t="s">
         <v>0</v>
       </c>
       <c r="AI31" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK31" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL31">
         <v>0</v>
       </c>
       <c r="AM31" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN31" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO31">
         <v>0</v>
@@ -11315,19 +11742,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L32">
         <v>0.5</v>
       </c>
       <c r="M32" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P32">
         <v>0.5</v>
@@ -11360,28 +11787,28 @@
         <v>1</v>
       </c>
       <c r="AE32" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG32" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH32" t="s">
         <v>0</v>
       </c>
       <c r="AI32" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK32" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL32">
         <v>0</v>
       </c>
       <c r="AM32" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN32" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO32">
         <v>0</v>
@@ -11425,19 +11852,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L33">
         <v>0.5</v>
       </c>
       <c r="M33" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P33">
         <v>0.5</v>
@@ -11470,28 +11897,28 @@
         <v>1</v>
       </c>
       <c r="AE33" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG33" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH33" t="s">
         <v>0</v>
       </c>
       <c r="AI33" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK33" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL33">
         <v>0</v>
       </c>
       <c r="AM33" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN33" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO33">
         <v>0</v>
@@ -11535,19 +11962,19 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L34">
         <v>0.5</v>
       </c>
       <c r="M34" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P34">
         <v>0.5</v>
@@ -11580,28 +12007,28 @@
         <v>1</v>
       </c>
       <c r="AE34" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG34" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH34" t="s">
         <v>0</v>
       </c>
       <c r="AI34" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK34" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL34">
         <v>0</v>
       </c>
       <c r="AM34" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN34" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO34">
         <v>0</v>
@@ -11636,28 +12063,28 @@
         <v>20</v>
       </c>
       <c r="G35" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H35" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L35">
         <v>0.5</v>
       </c>
       <c r="M35" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P35">
         <v>0.5</v>
@@ -11690,28 +12117,28 @@
         <v>1</v>
       </c>
       <c r="AE35" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG35" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH35" t="s">
         <v>0</v>
       </c>
       <c r="AI35" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK35" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL35">
         <v>0</v>
       </c>
       <c r="AM35" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN35" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO35">
         <v>0</v>
@@ -11746,28 +12173,28 @@
         <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H36" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L36">
         <v>0.5</v>
       </c>
       <c r="M36" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P36">
         <v>0.5</v>
@@ -11800,28 +12227,28 @@
         <v>1</v>
       </c>
       <c r="AE36" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG36" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH36" t="s">
         <v>0</v>
       </c>
       <c r="AI36" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK36" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL36">
         <v>0</v>
       </c>
       <c r="AM36" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN36" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO36">
         <v>0</v>
@@ -11856,28 +12283,28 @@
         <v>40</v>
       </c>
       <c r="G37" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H37" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L37">
         <v>0.5</v>
       </c>
       <c r="M37" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P37">
         <v>0.5</v>
@@ -11910,28 +12337,28 @@
         <v>1</v>
       </c>
       <c r="AE37" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG37" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH37" t="s">
         <v>0</v>
       </c>
       <c r="AI37" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK37" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL37">
         <v>0</v>
       </c>
       <c r="AM37" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN37" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO37">
         <v>0</v>
@@ -11966,28 +12393,28 @@
         <v>50</v>
       </c>
       <c r="G38" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H38" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L38">
         <v>0.5</v>
       </c>
       <c r="M38" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P38">
         <v>0.5</v>
@@ -12020,28 +12447,28 @@
         <v>1</v>
       </c>
       <c r="AE38" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG38" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH38" t="s">
         <v>0</v>
       </c>
       <c r="AI38" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK38" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL38">
         <v>0</v>
       </c>
       <c r="AM38" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN38" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO38">
         <v>0</v>
@@ -12085,19 +12512,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L39">
         <v>0.5</v>
       </c>
       <c r="M39" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
       <c r="O39" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P39">
         <v>0.5</v>
@@ -12130,28 +12557,28 @@
         <v>1</v>
       </c>
       <c r="AE39" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG39" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH39" t="s">
         <v>0</v>
       </c>
       <c r="AI39" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK39" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL39">
         <v>0</v>
       </c>
       <c r="AM39" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN39" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO39">
         <v>0</v>
@@ -12195,19 +12622,19 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L40">
         <v>0.5</v>
       </c>
       <c r="M40" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
       <c r="O40" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P40">
         <v>0.5</v>
@@ -12240,28 +12667,28 @@
         <v>1</v>
       </c>
       <c r="AE40" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG40" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH40" t="s">
         <v>0</v>
       </c>
       <c r="AI40" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK40" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL40">
         <v>0</v>
       </c>
       <c r="AM40" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN40" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO40">
         <v>0</v>
@@ -12305,19 +12732,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L41">
         <v>0.5</v>
       </c>
       <c r="M41" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P41">
         <v>0.5</v>
@@ -12350,28 +12777,28 @@
         <v>1</v>
       </c>
       <c r="AE41" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG41" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH41" t="s">
         <v>0</v>
       </c>
       <c r="AI41" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK41" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL41">
         <v>0</v>
       </c>
       <c r="AM41" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN41" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO41">
         <v>0</v>
@@ -12406,28 +12833,28 @@
         <v>20</v>
       </c>
       <c r="G42" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H42" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L42">
         <v>0.5</v>
       </c>
       <c r="M42" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N42">
         <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P42">
         <v>0.5</v>
@@ -12460,28 +12887,28 @@
         <v>1</v>
       </c>
       <c r="AE42" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG42" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH42" t="s">
         <v>0</v>
       </c>
       <c r="AI42" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK42" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL42">
         <v>0</v>
       </c>
       <c r="AM42" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN42" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO42">
         <v>0</v>
@@ -12516,28 +12943,28 @@
         <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H43" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L43">
         <v>0.5</v>
       </c>
       <c r="M43" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N43">
         <v>0</v>
       </c>
       <c r="O43" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P43">
         <v>0.5</v>
@@ -12570,28 +12997,28 @@
         <v>1</v>
       </c>
       <c r="AE43" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG43" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH43" t="s">
         <v>0</v>
       </c>
       <c r="AI43" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK43" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL43">
         <v>0</v>
       </c>
       <c r="AM43" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN43" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO43">
         <v>0</v>
@@ -12626,28 +13053,28 @@
         <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H44" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L44">
         <v>0.5</v>
       </c>
       <c r="M44" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N44">
         <v>0</v>
       </c>
       <c r="O44" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P44">
         <v>0.5</v>
@@ -12680,28 +13107,28 @@
         <v>1</v>
       </c>
       <c r="AE44" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG44" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH44" t="s">
         <v>0</v>
       </c>
       <c r="AI44" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK44" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL44">
         <v>0</v>
       </c>
       <c r="AM44" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN44" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO44">
         <v>0</v>
@@ -12745,19 +13172,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L45">
         <v>0.5</v>
       </c>
       <c r="M45" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N45">
         <v>0</v>
       </c>
       <c r="O45" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P45">
         <v>0.5</v>
@@ -12790,28 +13217,28 @@
         <v>1</v>
       </c>
       <c r="AE45" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG45" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH45" t="s">
         <v>0</v>
       </c>
       <c r="AI45" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK45" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL45">
         <v>0</v>
       </c>
       <c r="AM45" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN45" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO45">
         <v>0</v>
@@ -12855,19 +13282,19 @@
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L46">
         <v>0.5</v>
       </c>
       <c r="M46" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N46">
         <v>0</v>
       </c>
       <c r="O46" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P46">
         <v>0.5</v>
@@ -12900,28 +13327,28 @@
         <v>1</v>
       </c>
       <c r="AE46" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG46" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH46" t="s">
         <v>0</v>
       </c>
       <c r="AI46" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK46" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL46">
         <v>0</v>
       </c>
       <c r="AM46" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN46" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO46">
         <v>0</v>
@@ -12965,19 +13392,19 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L47">
         <v>0.5</v>
       </c>
       <c r="M47" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N47">
         <v>0</v>
       </c>
       <c r="O47" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P47">
         <v>0.5</v>
@@ -13010,28 +13437,28 @@
         <v>1</v>
       </c>
       <c r="AE47" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG47" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH47" t="s">
         <v>0</v>
       </c>
       <c r="AI47" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK47" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL47">
         <v>0</v>
       </c>
       <c r="AM47" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN47" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO47">
         <v>0</v>
@@ -13066,28 +13493,28 @@
         <v>20</v>
       </c>
       <c r="G48" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H48" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L48">
         <v>0.5</v>
       </c>
       <c r="M48" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N48">
         <v>0</v>
       </c>
       <c r="O48" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P48">
         <v>0.5</v>
@@ -13120,28 +13547,28 @@
         <v>1</v>
       </c>
       <c r="AE48" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG48" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH48" t="s">
         <v>0</v>
       </c>
       <c r="AI48" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK48" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL48">
         <v>0</v>
       </c>
       <c r="AM48" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN48" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO48">
         <v>0</v>
@@ -13176,28 +13603,28 @@
         <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H49" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L49">
         <v>0.5</v>
       </c>
       <c r="M49" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N49">
         <v>0</v>
       </c>
       <c r="O49" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P49">
         <v>0.5</v>
@@ -13230,28 +13657,28 @@
         <v>1</v>
       </c>
       <c r="AE49" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG49" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH49" t="s">
         <v>0</v>
       </c>
       <c r="AI49" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK49" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL49">
         <v>0</v>
       </c>
       <c r="AM49" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN49" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO49">
         <v>0</v>
@@ -13286,28 +13713,28 @@
         <v>40</v>
       </c>
       <c r="G50" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H50" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L50">
         <v>0.5</v>
       </c>
       <c r="M50" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N50">
         <v>0</v>
       </c>
       <c r="O50" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P50">
         <v>0.5</v>
@@ -13340,28 +13767,28 @@
         <v>1</v>
       </c>
       <c r="AE50" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG50" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH50" t="s">
         <v>0</v>
       </c>
       <c r="AI50" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK50" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL50">
         <v>0</v>
       </c>
       <c r="AM50" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN50" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO50">
         <v>0</v>
@@ -13396,28 +13823,28 @@
         <v>50</v>
       </c>
       <c r="G51" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H51" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L51">
         <v>0.5</v>
       </c>
       <c r="M51" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N51">
         <v>0</v>
       </c>
       <c r="O51" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P51">
         <v>0.5</v>
@@ -13450,28 +13877,28 @@
         <v>1</v>
       </c>
       <c r="AE51" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG51" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH51" t="s">
         <v>0</v>
       </c>
       <c r="AI51" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK51" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL51">
         <v>0</v>
       </c>
       <c r="AM51" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN51" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO51">
         <v>0</v>
@@ -13506,28 +13933,28 @@
         <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H52" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L52">
         <v>0.5</v>
       </c>
       <c r="M52" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N52">
         <v>0</v>
       </c>
       <c r="O52" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P52">
         <v>0.5</v>
@@ -13560,28 +13987,28 @@
         <v>1</v>
       </c>
       <c r="AE52" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG52" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH52" t="s">
         <v>0</v>
       </c>
       <c r="AI52" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK52" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL52">
         <v>0</v>
       </c>
       <c r="AM52" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN52" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO52">
         <v>0</v>
@@ -13625,19 +14052,19 @@
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L53">
         <v>0.5</v>
       </c>
       <c r="M53" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N53">
         <v>0</v>
       </c>
       <c r="O53" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P53">
         <v>0.5</v>
@@ -13670,28 +14097,28 @@
         <v>1</v>
       </c>
       <c r="AE53" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG53" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH53" t="s">
         <v>0</v>
       </c>
       <c r="AI53" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK53" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL53">
         <v>0</v>
       </c>
       <c r="AM53" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN53" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO53">
         <v>0</v>
@@ -13735,19 +14162,19 @@
         <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L54">
         <v>0.5</v>
       </c>
       <c r="M54" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N54">
         <v>0</v>
       </c>
       <c r="O54" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P54">
         <v>0.5</v>
@@ -13780,28 +14207,28 @@
         <v>1</v>
       </c>
       <c r="AE54" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG54" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH54" t="s">
         <v>0</v>
       </c>
       <c r="AI54" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK54" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL54">
         <v>0</v>
       </c>
       <c r="AM54" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN54" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO54">
         <v>0</v>
@@ -13845,19 +14272,19 @@
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L55">
         <v>0.5</v>
       </c>
       <c r="M55" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N55">
         <v>0</v>
       </c>
       <c r="O55" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P55">
         <v>0.5</v>
@@ -13890,28 +14317,28 @@
         <v>1</v>
       </c>
       <c r="AE55" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG55" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH55" t="s">
         <v>0</v>
       </c>
       <c r="AI55" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK55" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL55">
         <v>0</v>
       </c>
       <c r="AM55" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN55" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO55">
         <v>0</v>
@@ -13946,28 +14373,28 @@
         <v>20</v>
       </c>
       <c r="G56" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H56" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L56">
         <v>0.5</v>
       </c>
       <c r="M56" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N56">
         <v>0</v>
       </c>
       <c r="O56" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P56">
         <v>0.5</v>
@@ -14000,28 +14427,28 @@
         <v>1</v>
       </c>
       <c r="AE56" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG56" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH56" t="s">
         <v>0</v>
       </c>
       <c r="AI56" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK56" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL56">
         <v>0</v>
       </c>
       <c r="AM56" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN56" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO56">
         <v>0</v>
@@ -14056,28 +14483,28 @@
         <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H57" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L57">
         <v>0.5</v>
       </c>
       <c r="M57" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N57">
         <v>0</v>
       </c>
       <c r="O57" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P57">
         <v>0.5</v>
@@ -14110,28 +14537,28 @@
         <v>1</v>
       </c>
       <c r="AE57" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG57" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH57" t="s">
         <v>0</v>
       </c>
       <c r="AI57" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK57" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL57">
         <v>0</v>
       </c>
       <c r="AM57" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN57" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO57">
         <v>0</v>
@@ -14166,28 +14593,28 @@
         <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H58" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L58">
         <v>0.5</v>
       </c>
       <c r="M58" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N58">
         <v>0</v>
       </c>
       <c r="O58" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P58">
         <v>0.5</v>
@@ -14220,28 +14647,28 @@
         <v>1</v>
       </c>
       <c r="AE58" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG58" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH58" t="s">
         <v>0</v>
       </c>
       <c r="AI58" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK58" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL58">
         <v>0</v>
       </c>
       <c r="AM58" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN58" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO58">
         <v>0</v>
@@ -14285,19 +14712,19 @@
         <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L59">
         <v>0.5</v>
       </c>
       <c r="M59" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N59">
         <v>0</v>
       </c>
       <c r="O59" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P59">
         <v>0.5</v>
@@ -14330,28 +14757,28 @@
         <v>1</v>
       </c>
       <c r="AE59" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG59" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH59" t="s">
         <v>0</v>
       </c>
       <c r="AI59" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK59" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL59">
         <v>0</v>
       </c>
       <c r="AM59" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN59" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO59">
         <v>0</v>
@@ -14395,19 +14822,19 @@
         <v>0</v>
       </c>
       <c r="K60" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L60">
         <v>0.5</v>
       </c>
       <c r="M60" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N60">
         <v>0</v>
       </c>
       <c r="O60" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P60">
         <v>0.5</v>
@@ -14440,28 +14867,28 @@
         <v>1</v>
       </c>
       <c r="AE60" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG60" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH60" t="s">
         <v>0</v>
       </c>
       <c r="AI60" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK60" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL60">
         <v>0</v>
       </c>
       <c r="AM60" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN60" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO60">
         <v>0</v>
@@ -14505,19 +14932,19 @@
         <v>0</v>
       </c>
       <c r="K61" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L61">
         <v>0.5</v>
       </c>
       <c r="M61" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N61">
         <v>0</v>
       </c>
       <c r="O61" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P61">
         <v>0.5</v>
@@ -14550,28 +14977,28 @@
         <v>1</v>
       </c>
       <c r="AE61" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG61" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH61" t="s">
         <v>0</v>
       </c>
       <c r="AI61" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK61" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL61">
         <v>0</v>
       </c>
       <c r="AM61" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN61" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO61">
         <v>0</v>
@@ -14615,19 +15042,19 @@
         <v>0</v>
       </c>
       <c r="K62" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L62">
         <v>0.5</v>
       </c>
       <c r="M62" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N62">
         <v>0</v>
       </c>
       <c r="O62" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P62">
         <v>0.5</v>
@@ -14660,28 +15087,28 @@
         <v>1</v>
       </c>
       <c r="AE62" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG62" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH62" t="s">
         <v>0</v>
       </c>
       <c r="AI62" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK62" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL62">
         <v>0</v>
       </c>
       <c r="AM62" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN62" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO62">
         <v>0</v>
@@ -14725,19 +15152,19 @@
         <v>0</v>
       </c>
       <c r="K63" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L63">
         <v>0.5</v>
       </c>
       <c r="M63" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N63">
         <v>0</v>
       </c>
       <c r="O63" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P63">
         <v>0.5</v>
@@ -14770,28 +15197,28 @@
         <v>1</v>
       </c>
       <c r="AE63" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG63" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH63" t="s">
         <v>0</v>
       </c>
       <c r="AI63" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK63" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL63">
         <v>0</v>
       </c>
       <c r="AM63" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN63" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO63">
         <v>0</v>
@@ -14835,19 +15262,19 @@
         <v>0</v>
       </c>
       <c r="K64" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L64">
         <v>0.5</v>
       </c>
       <c r="M64" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N64">
         <v>0</v>
       </c>
       <c r="O64" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P64">
         <v>0.5</v>
@@ -14880,28 +15307,28 @@
         <v>1</v>
       </c>
       <c r="AE64" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG64" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH64" t="s">
         <v>0</v>
       </c>
       <c r="AI64" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK64" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL64">
         <v>0</v>
       </c>
       <c r="AM64" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN64" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO64">
         <v>0</v>
@@ -14936,28 +15363,28 @@
         <v>20</v>
       </c>
       <c r="G65" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H65" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="K65" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L65">
         <v>0.5</v>
       </c>
       <c r="M65" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N65">
         <v>0</v>
       </c>
       <c r="O65" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P65">
         <v>0.5</v>
@@ -14990,28 +15417,28 @@
         <v>1</v>
       </c>
       <c r="AE65" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG65" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH65" t="s">
         <v>0</v>
       </c>
       <c r="AI65" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK65" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL65">
         <v>0</v>
       </c>
       <c r="AM65" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN65" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO65">
         <v>0</v>
@@ -15046,28 +15473,28 @@
         <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H66" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="K66" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L66">
         <v>0.5</v>
       </c>
       <c r="M66" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N66">
         <v>0</v>
       </c>
       <c r="O66" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P66">
         <v>0.5</v>
@@ -15100,28 +15527,28 @@
         <v>1</v>
       </c>
       <c r="AE66" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG66" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH66" t="s">
         <v>0</v>
       </c>
       <c r="AI66" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK66" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL66">
         <v>0</v>
       </c>
       <c r="AM66" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN66" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO66">
         <v>0</v>
@@ -15156,28 +15583,28 @@
         <v>40</v>
       </c>
       <c r="G67" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H67" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="K67" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L67">
         <v>0.5</v>
       </c>
       <c r="M67" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N67">
         <v>0</v>
       </c>
       <c r="O67" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P67">
         <v>0.5</v>
@@ -15210,28 +15637,28 @@
         <v>1</v>
       </c>
       <c r="AE67" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG67" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH67" t="s">
         <v>0</v>
       </c>
       <c r="AI67" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK67" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL67">
         <v>0</v>
       </c>
       <c r="AM67" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN67" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO67">
         <v>0</v>
@@ -15275,19 +15702,19 @@
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L68">
         <v>0.5</v>
       </c>
       <c r="M68" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N68">
         <v>0</v>
       </c>
       <c r="O68" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P68">
         <v>0.5</v>
@@ -15320,28 +15747,28 @@
         <v>1</v>
       </c>
       <c r="AE68" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG68" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH68" t="s">
         <v>0</v>
       </c>
       <c r="AI68" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK68" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL68">
         <v>0</v>
       </c>
       <c r="AM68" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN68" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO68">
         <v>0</v>
@@ -15376,28 +15803,28 @@
         <v>20</v>
       </c>
       <c r="G69" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H69" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="K69" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L69">
         <v>0.5</v>
       </c>
       <c r="M69" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N69">
         <v>0</v>
       </c>
       <c r="O69" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P69">
         <v>0.5</v>
@@ -15430,28 +15857,28 @@
         <v>1</v>
       </c>
       <c r="AE69" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG69" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH69" t="s">
         <v>0</v>
       </c>
       <c r="AI69" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK69" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL69">
         <v>0</v>
       </c>
       <c r="AM69" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN69" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO69">
         <v>0</v>
@@ -15486,28 +15913,28 @@
         <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H70" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="K70" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L70">
         <v>0.5</v>
       </c>
       <c r="M70" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N70">
         <v>0</v>
       </c>
       <c r="O70" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P70">
         <v>0.5</v>
@@ -15540,28 +15967,28 @@
         <v>1</v>
       </c>
       <c r="AE70" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG70" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH70" t="s">
         <v>0</v>
       </c>
       <c r="AI70" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK70" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL70">
         <v>0</v>
       </c>
       <c r="AM70" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN70" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO70">
         <v>0</v>
@@ -15596,28 +16023,28 @@
         <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H71" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="K71" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L71">
         <v>0.5</v>
       </c>
       <c r="M71" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N71">
         <v>0</v>
       </c>
       <c r="O71" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P71">
         <v>0.5</v>
@@ -15650,28 +16077,28 @@
         <v>1</v>
       </c>
       <c r="AE71" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG71" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH71" t="s">
         <v>0</v>
       </c>
       <c r="AI71" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK71" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL71">
         <v>0</v>
       </c>
       <c r="AM71" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN71" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO71">
         <v>0</v>
@@ -15715,19 +16142,19 @@
         <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L72">
         <v>0.5</v>
       </c>
       <c r="M72" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N72">
         <v>0</v>
       </c>
       <c r="O72" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P72">
         <v>0.5</v>
@@ -15760,28 +16187,28 @@
         <v>1</v>
       </c>
       <c r="AE72" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG72" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH72" t="s">
         <v>0</v>
       </c>
       <c r="AI72" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK72" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL72">
         <v>0</v>
       </c>
       <c r="AM72" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN72" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO72">
         <v>0</v>
@@ -15816,28 +16243,28 @@
         <v>20</v>
       </c>
       <c r="G73" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H73" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="K73" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L73">
         <v>0.5</v>
       </c>
       <c r="M73" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N73">
         <v>0</v>
       </c>
       <c r="O73" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P73">
         <v>0.5</v>
@@ -15870,28 +16297,28 @@
         <v>1</v>
       </c>
       <c r="AE73" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG73" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH73" t="s">
         <v>0</v>
       </c>
       <c r="AI73" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK73" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL73">
         <v>0</v>
       </c>
       <c r="AM73" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN73" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO73">
         <v>0</v>
@@ -15926,28 +16353,28 @@
         <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H74" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="K74" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L74">
         <v>0.5</v>
       </c>
       <c r="M74" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N74">
         <v>0</v>
       </c>
       <c r="O74" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P74">
         <v>0.5</v>
@@ -15980,28 +16407,28 @@
         <v>1</v>
       </c>
       <c r="AE74" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG74" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH74" t="s">
         <v>0</v>
       </c>
       <c r="AI74" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK74" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL74">
         <v>0</v>
       </c>
       <c r="AM74" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN74" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO74">
         <v>0</v>
@@ -16036,28 +16463,28 @@
         <v>40</v>
       </c>
       <c r="G75" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H75" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="K75" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L75">
         <v>0.5</v>
       </c>
       <c r="M75" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N75">
         <v>0</v>
       </c>
       <c r="O75" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P75">
         <v>0.5</v>
@@ -16090,28 +16517,28 @@
         <v>1</v>
       </c>
       <c r="AE75" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG75" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH75" t="s">
         <v>0</v>
       </c>
       <c r="AI75" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK75" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL75">
         <v>0</v>
       </c>
       <c r="AM75" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN75" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO75">
         <v>0</v>
@@ -16155,19 +16582,19 @@
         <v>0</v>
       </c>
       <c r="K76" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L76">
         <v>0.5</v>
       </c>
       <c r="M76" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N76">
         <v>0</v>
       </c>
       <c r="O76" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P76">
         <v>0.5</v>
@@ -16200,28 +16627,28 @@
         <v>1</v>
       </c>
       <c r="AE76" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG76" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH76" t="s">
         <v>0</v>
       </c>
       <c r="AI76" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK76" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL76">
         <v>0</v>
       </c>
       <c r="AM76" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN76" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO76">
         <v>0</v>
@@ -16265,19 +16692,19 @@
         <v>0</v>
       </c>
       <c r="K77" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L77">
         <v>0.5</v>
       </c>
       <c r="M77" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N77">
         <v>0</v>
       </c>
       <c r="O77" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P77">
         <v>0.5</v>
@@ -16310,28 +16737,28 @@
         <v>1</v>
       </c>
       <c r="AE77" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG77" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH77" t="s">
         <v>0</v>
       </c>
       <c r="AI77" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK77" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL77">
         <v>0</v>
       </c>
       <c r="AM77" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN77" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO77">
         <v>0</v>
@@ -16375,19 +16802,19 @@
         <v>0</v>
       </c>
       <c r="K78" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L78">
         <v>0.5</v>
       </c>
       <c r="M78" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N78">
         <v>0</v>
       </c>
       <c r="O78" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P78">
         <v>0.5</v>
@@ -16420,28 +16847,28 @@
         <v>1</v>
       </c>
       <c r="AE78" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG78" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH78" t="s">
         <v>0</v>
       </c>
       <c r="AI78" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK78" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL78">
         <v>0</v>
       </c>
       <c r="AM78" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN78" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO78">
         <v>0</v>
@@ -16476,28 +16903,28 @@
         <v>20</v>
       </c>
       <c r="G79" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H79" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="K79" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L79">
         <v>0.5</v>
       </c>
       <c r="M79" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N79">
         <v>0</v>
       </c>
       <c r="O79" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P79">
         <v>0.5</v>
@@ -16530,28 +16957,28 @@
         <v>1</v>
       </c>
       <c r="AE79" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG79" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH79" t="s">
         <v>0</v>
       </c>
       <c r="AI79" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK79" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL79">
         <v>0</v>
       </c>
       <c r="AM79" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN79" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO79">
         <v>0</v>
@@ -16586,28 +17013,28 @@
         <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H80" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="K80" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L80">
         <v>0.5</v>
       </c>
       <c r="M80" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N80">
         <v>0</v>
       </c>
       <c r="O80" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P80">
         <v>0.5</v>
@@ -16640,28 +17067,28 @@
         <v>1</v>
       </c>
       <c r="AE80" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG80" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH80" t="s">
         <v>0</v>
       </c>
       <c r="AI80" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK80" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL80">
         <v>0</v>
       </c>
       <c r="AM80" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN80" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO80">
         <v>0</v>
@@ -16696,28 +17123,28 @@
         <v>40</v>
       </c>
       <c r="G81" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H81" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L81">
         <v>0.5</v>
       </c>
       <c r="M81" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N81">
         <v>0</v>
       </c>
       <c r="O81" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P81">
         <v>0.5</v>
@@ -16750,28 +17177,28 @@
         <v>1</v>
       </c>
       <c r="AE81" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG81" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH81" t="s">
         <v>0</v>
       </c>
       <c r="AI81" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK81" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL81">
         <v>0</v>
       </c>
       <c r="AM81" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN81" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO81">
         <v>0</v>
@@ -16806,28 +17233,28 @@
         <v>50</v>
       </c>
       <c r="G82" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H82" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="K82" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L82">
         <v>0.5</v>
       </c>
       <c r="M82" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N82">
         <v>0</v>
       </c>
       <c r="O82" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P82">
         <v>0.5</v>
@@ -16860,28 +17287,28 @@
         <v>1</v>
       </c>
       <c r="AE82" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG82" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH82" t="s">
         <v>0</v>
       </c>
       <c r="AI82" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK82" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL82">
         <v>0</v>
       </c>
       <c r="AM82" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN82" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO82">
         <v>0</v>
@@ -16925,19 +17352,19 @@
         <v>0</v>
       </c>
       <c r="K83" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L83">
         <v>0.5</v>
       </c>
       <c r="M83" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N83">
         <v>0</v>
       </c>
       <c r="O83" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P83">
         <v>0.5</v>
@@ -16970,28 +17397,28 @@
         <v>1</v>
       </c>
       <c r="AE83" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG83" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH83" t="s">
         <v>0</v>
       </c>
       <c r="AI83" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK83" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL83">
         <v>0</v>
       </c>
       <c r="AM83" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN83" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO83">
         <v>0</v>
@@ -17035,19 +17462,19 @@
         <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L84">
         <v>0.5</v>
       </c>
       <c r="M84" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N84">
         <v>0</v>
       </c>
       <c r="O84" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P84">
         <v>0.5</v>
@@ -17080,28 +17507,28 @@
         <v>1</v>
       </c>
       <c r="AE84" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG84" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH84" t="s">
         <v>0</v>
       </c>
       <c r="AI84" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK84" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL84">
         <v>0</v>
       </c>
       <c r="AM84" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN84" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO84">
         <v>0</v>
@@ -17145,19 +17572,19 @@
         <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L85">
         <v>0.5</v>
       </c>
       <c r="M85" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N85">
         <v>0</v>
       </c>
       <c r="O85" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P85">
         <v>0.5</v>
@@ -17190,28 +17617,28 @@
         <v>1</v>
       </c>
       <c r="AE85" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG85" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH85" t="s">
         <v>0</v>
       </c>
       <c r="AI85" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK85" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL85">
         <v>0</v>
       </c>
       <c r="AM85" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN85" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO85">
         <v>0</v>
@@ -17255,19 +17682,19 @@
         <v>0</v>
       </c>
       <c r="K86" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L86">
         <v>0.5</v>
       </c>
       <c r="M86" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N86">
         <v>0</v>
       </c>
       <c r="O86" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P86">
         <v>0.5</v>
@@ -17300,28 +17727,28 @@
         <v>1</v>
       </c>
       <c r="AE86" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG86" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH86" t="s">
         <v>0</v>
       </c>
       <c r="AI86" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK86" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL86">
         <v>0</v>
       </c>
       <c r="AM86" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN86" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO86">
         <v>0</v>
@@ -17365,19 +17792,19 @@
         <v>0</v>
       </c>
       <c r="K87" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L87">
         <v>0.5</v>
       </c>
       <c r="M87" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N87">
         <v>0</v>
       </c>
       <c r="O87" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P87">
         <v>0.5</v>
@@ -17410,28 +17837,28 @@
         <v>1</v>
       </c>
       <c r="AE87" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG87" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH87" t="s">
         <v>0</v>
       </c>
       <c r="AI87" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK87" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL87">
         <v>0</v>
       </c>
       <c r="AM87" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN87" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO87">
         <v>0</v>
@@ -17475,19 +17902,19 @@
         <v>0</v>
       </c>
       <c r="K88" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L88">
         <v>0.5</v>
       </c>
       <c r="M88" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N88">
         <v>0</v>
       </c>
       <c r="O88" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P88">
         <v>0.5</v>
@@ -17520,28 +17947,28 @@
         <v>1</v>
       </c>
       <c r="AE88" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG88" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH88" t="s">
         <v>0</v>
       </c>
       <c r="AI88" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK88" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL88">
         <v>0</v>
       </c>
       <c r="AM88" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN88" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO88">
         <v>0</v>
@@ -17585,19 +18012,19 @@
         <v>0</v>
       </c>
       <c r="K89" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L89">
         <v>0.5</v>
       </c>
       <c r="M89" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N89">
         <v>0</v>
       </c>
       <c r="O89" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P89">
         <v>0.5</v>
@@ -17630,28 +18057,28 @@
         <v>1</v>
       </c>
       <c r="AE89" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG89" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH89" t="s">
         <v>0</v>
       </c>
       <c r="AI89" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK89" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL89">
         <v>0</v>
       </c>
       <c r="AM89" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN89" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO89">
         <v>0</v>
@@ -17695,19 +18122,19 @@
         <v>0</v>
       </c>
       <c r="K90" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L90">
         <v>0.5</v>
       </c>
       <c r="M90" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N90">
         <v>0</v>
       </c>
       <c r="O90" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P90">
         <v>0.5</v>
@@ -17740,28 +18167,28 @@
         <v>1</v>
       </c>
       <c r="AE90" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG90" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH90" t="s">
         <v>0</v>
       </c>
       <c r="AI90" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK90" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL90">
         <v>0</v>
       </c>
       <c r="AM90" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN90" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO90">
         <v>0</v>
@@ -17796,28 +18223,28 @@
         <v>30</v>
       </c>
       <c r="G91" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H91" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="K91" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L91">
         <v>0.5</v>
       </c>
       <c r="M91" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N91">
         <v>0</v>
       </c>
       <c r="O91" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P91">
         <v>0.5</v>
@@ -17850,28 +18277,28 @@
         <v>1</v>
       </c>
       <c r="AE91" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG91" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH91" t="s">
         <v>0</v>
       </c>
       <c r="AI91" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK91" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL91">
         <v>0</v>
       </c>
       <c r="AM91" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN91" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO91">
         <v>0</v>
@@ -17906,28 +18333,28 @@
         <v>40</v>
       </c>
       <c r="G92" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H92" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="K92" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L92">
         <v>0.5</v>
       </c>
       <c r="M92" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N92">
         <v>0</v>
       </c>
       <c r="O92" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P92">
         <v>0.5</v>
@@ -17960,28 +18387,28 @@
         <v>1</v>
       </c>
       <c r="AE92" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG92" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH92" t="s">
         <v>0</v>
       </c>
       <c r="AI92" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK92" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL92">
         <v>0</v>
       </c>
       <c r="AM92" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN92" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO92">
         <v>0</v>
@@ -18016,28 +18443,28 @@
         <v>50</v>
       </c>
       <c r="G93" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H93" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L93">
         <v>0.5</v>
       </c>
       <c r="M93" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N93">
         <v>0</v>
       </c>
       <c r="O93" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P93">
         <v>0.5</v>
@@ -18070,28 +18497,28 @@
         <v>1</v>
       </c>
       <c r="AE93" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG93" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH93" t="s">
         <v>0</v>
       </c>
       <c r="AI93" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK93" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL93">
         <v>0</v>
       </c>
       <c r="AM93" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN93" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO93">
         <v>0</v>
@@ -18135,19 +18562,19 @@
         <v>0</v>
       </c>
       <c r="K94" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L94">
         <v>0.5</v>
       </c>
       <c r="M94" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N94">
         <v>0</v>
       </c>
       <c r="O94" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P94">
         <v>0.5</v>
@@ -18180,28 +18607,28 @@
         <v>1</v>
       </c>
       <c r="AE94" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG94" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH94" t="s">
         <v>0</v>
       </c>
       <c r="AI94" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK94" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL94">
         <v>0</v>
       </c>
       <c r="AM94" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN94" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO94">
         <v>0</v>
@@ -18245,19 +18672,19 @@
         <v>0</v>
       </c>
       <c r="K95" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L95">
         <v>0.5</v>
       </c>
       <c r="M95" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N95">
         <v>0</v>
       </c>
       <c r="O95" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P95">
         <v>0.5</v>
@@ -18290,28 +18717,28 @@
         <v>1</v>
       </c>
       <c r="AE95" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG95" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH95" t="s">
         <v>0</v>
       </c>
       <c r="AI95" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK95" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL95">
         <v>0</v>
       </c>
       <c r="AM95" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN95" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO95">
         <v>0</v>
@@ -18355,19 +18782,19 @@
         <v>0</v>
       </c>
       <c r="K96" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L96">
         <v>0.5</v>
       </c>
       <c r="M96" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N96">
         <v>0</v>
       </c>
       <c r="O96" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P96">
         <v>0.5</v>
@@ -18400,28 +18827,28 @@
         <v>1</v>
       </c>
       <c r="AE96" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG96" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH96" t="s">
         <v>0</v>
       </c>
       <c r="AI96" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK96" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL96">
         <v>0</v>
       </c>
       <c r="AM96" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN96" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO96">
         <v>0</v>
@@ -18456,28 +18883,28 @@
         <v>20</v>
       </c>
       <c r="G97" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H97" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="K97" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L97">
         <v>0.5</v>
       </c>
       <c r="M97" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N97">
         <v>0</v>
       </c>
       <c r="O97" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P97">
         <v>0.5</v>
@@ -18510,28 +18937,28 @@
         <v>1</v>
       </c>
       <c r="AE97" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG97" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH97" t="s">
         <v>0</v>
       </c>
       <c r="AI97" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK97" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL97">
         <v>0</v>
       </c>
       <c r="AM97" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN97" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO97">
         <v>0</v>
@@ -18566,28 +18993,28 @@
         <v>30</v>
       </c>
       <c r="G98" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H98" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="K98" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L98">
         <v>0.5</v>
       </c>
       <c r="M98" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N98">
         <v>0</v>
       </c>
       <c r="O98" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P98">
         <v>0.5</v>
@@ -18620,28 +19047,28 @@
         <v>1</v>
       </c>
       <c r="AE98" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG98" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH98" t="s">
         <v>0</v>
       </c>
       <c r="AI98" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK98" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL98">
         <v>0</v>
       </c>
       <c r="AM98" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN98" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO98">
         <v>0</v>
@@ -18676,28 +19103,28 @@
         <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H99" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L99">
         <v>0.5</v>
       </c>
       <c r="M99" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N99">
         <v>0</v>
       </c>
       <c r="O99" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P99">
         <v>0.5</v>
@@ -18730,28 +19157,28 @@
         <v>1</v>
       </c>
       <c r="AE99" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG99" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH99" t="s">
         <v>0</v>
       </c>
       <c r="AI99" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK99" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL99">
         <v>0</v>
       </c>
       <c r="AM99" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN99" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO99">
         <v>0</v>
@@ -18795,19 +19222,19 @@
         <v>0</v>
       </c>
       <c r="K100" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L100">
         <v>0.5</v>
       </c>
       <c r="M100" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N100">
         <v>0</v>
       </c>
       <c r="O100" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P100">
         <v>0.5</v>
@@ -18840,28 +19267,28 @@
         <v>1</v>
       </c>
       <c r="AE100" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG100" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH100" t="s">
         <v>0</v>
       </c>
       <c r="AI100" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK100" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL100">
         <v>0</v>
       </c>
       <c r="AM100" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN100" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO100">
         <v>0</v>
@@ -18905,19 +19332,19 @@
         <v>0</v>
       </c>
       <c r="K101" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L101">
         <v>0.5</v>
       </c>
       <c r="M101" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N101">
         <v>0</v>
       </c>
       <c r="O101" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P101">
         <v>0.5</v>
@@ -18950,28 +19377,28 @@
         <v>1</v>
       </c>
       <c r="AE101" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG101" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH101" t="s">
         <v>0</v>
       </c>
       <c r="AI101" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK101" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL101">
         <v>0</v>
       </c>
       <c r="AM101" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN101" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO101">
         <v>0</v>
@@ -19015,19 +19442,19 @@
         <v>0</v>
       </c>
       <c r="K102" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L102">
         <v>0.5</v>
       </c>
       <c r="M102" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N102">
         <v>0</v>
       </c>
       <c r="O102" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P102">
         <v>0.5</v>
@@ -19060,28 +19487,28 @@
         <v>1</v>
       </c>
       <c r="AE102" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG102" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH102" t="s">
         <v>0</v>
       </c>
       <c r="AI102" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK102" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL102">
         <v>0</v>
       </c>
       <c r="AM102" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN102" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO102">
         <v>0</v>
@@ -19125,19 +19552,19 @@
         <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L103">
         <v>0.5</v>
       </c>
       <c r="M103" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N103">
         <v>0</v>
       </c>
       <c r="O103" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P103">
         <v>0.5</v>
@@ -19170,28 +19597,28 @@
         <v>1</v>
       </c>
       <c r="AE103" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG103" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH103" t="s">
         <v>0</v>
       </c>
       <c r="AI103" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK103" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL103">
         <v>0</v>
       </c>
       <c r="AM103" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN103" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO103">
         <v>0</v>
@@ -19226,28 +19653,28 @@
         <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H104" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="K104" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L104">
         <v>0.5</v>
       </c>
       <c r="M104" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N104">
         <v>0</v>
       </c>
       <c r="O104" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P104">
         <v>0.5</v>
@@ -19280,28 +19707,28 @@
         <v>1</v>
       </c>
       <c r="AE104" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG104" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH104" t="s">
         <v>0</v>
       </c>
       <c r="AI104" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK104" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL104">
         <v>0</v>
       </c>
       <c r="AM104" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN104" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO104">
         <v>0</v>
@@ -19336,28 +19763,28 @@
         <v>40</v>
       </c>
       <c r="G105" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H105" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="K105" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L105">
         <v>0.5</v>
       </c>
       <c r="M105" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N105">
         <v>0</v>
       </c>
       <c r="O105" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P105">
         <v>0.5</v>
@@ -19390,28 +19817,28 @@
         <v>1</v>
       </c>
       <c r="AE105" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG105" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH105" t="s">
         <v>0</v>
       </c>
       <c r="AI105" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK105" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL105">
         <v>0</v>
       </c>
       <c r="AM105" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN105" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO105">
         <v>0</v>
@@ -19446,28 +19873,28 @@
         <v>50</v>
       </c>
       <c r="G106" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H106" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="K106" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L106">
         <v>0.5</v>
       </c>
       <c r="M106" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N106">
         <v>0</v>
       </c>
       <c r="O106" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P106">
         <v>0.5</v>
@@ -19500,28 +19927,28 @@
         <v>1</v>
       </c>
       <c r="AE106" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG106" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH106" t="s">
         <v>0</v>
       </c>
       <c r="AI106" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK106" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL106">
         <v>0</v>
       </c>
       <c r="AM106" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN106" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO106">
         <v>0</v>
@@ -19565,19 +19992,19 @@
         <v>0</v>
       </c>
       <c r="K107" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L107">
         <v>0.5</v>
       </c>
       <c r="M107" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N107">
         <v>0</v>
       </c>
       <c r="O107" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P107">
         <v>0.5</v>
@@ -19610,28 +20037,28 @@
         <v>1</v>
       </c>
       <c r="AE107" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG107" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH107" t="s">
         <v>0</v>
       </c>
       <c r="AI107" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK107" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL107">
         <v>0</v>
       </c>
       <c r="AM107" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN107" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO107">
         <v>0</v>
@@ -19675,19 +20102,19 @@
         <v>0</v>
       </c>
       <c r="K108" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L108">
         <v>0.5</v>
       </c>
       <c r="M108" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N108">
         <v>0</v>
       </c>
       <c r="O108" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P108">
         <v>0.5</v>
@@ -19720,28 +20147,28 @@
         <v>1</v>
       </c>
       <c r="AE108" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG108" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH108" t="s">
         <v>0</v>
       </c>
       <c r="AI108" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK108" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL108">
         <v>0</v>
       </c>
       <c r="AM108" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN108" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO108">
         <v>0</v>
@@ -19785,19 +20212,19 @@
         <v>0</v>
       </c>
       <c r="K109" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L109">
         <v>0.5</v>
       </c>
       <c r="M109" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N109">
         <v>0</v>
       </c>
       <c r="O109" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P109">
         <v>0.5</v>
@@ -19830,28 +20257,28 @@
         <v>1</v>
       </c>
       <c r="AE109" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG109" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH109" t="s">
         <v>0</v>
       </c>
       <c r="AI109" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK109" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL109">
         <v>0</v>
       </c>
       <c r="AM109" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN109" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO109">
         <v>0</v>
@@ -19886,28 +20313,28 @@
         <v>20</v>
       </c>
       <c r="G110" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H110" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="K110" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L110">
         <v>0.5</v>
       </c>
       <c r="M110" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N110">
         <v>0</v>
       </c>
       <c r="O110" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P110">
         <v>0.5</v>
@@ -19940,28 +20367,28 @@
         <v>1</v>
       </c>
       <c r="AE110" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG110" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH110" t="s">
         <v>0</v>
       </c>
       <c r="AI110" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK110" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL110">
         <v>0</v>
       </c>
       <c r="AM110" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN110" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO110">
         <v>0</v>
@@ -19996,28 +20423,28 @@
         <v>30</v>
       </c>
       <c r="G111" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H111" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="K111" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L111">
         <v>0.5</v>
       </c>
       <c r="M111" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N111">
         <v>0</v>
       </c>
       <c r="O111" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P111">
         <v>0.5</v>
@@ -20050,28 +20477,28 @@
         <v>1</v>
       </c>
       <c r="AE111" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG111" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH111" t="s">
         <v>0</v>
       </c>
       <c r="AI111" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK111" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL111">
         <v>0</v>
       </c>
       <c r="AM111" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN111" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO111">
         <v>0</v>
@@ -20106,28 +20533,28 @@
         <v>40</v>
       </c>
       <c r="G112" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H112" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="K112" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L112">
         <v>0.5</v>
       </c>
       <c r="M112" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N112">
         <v>0</v>
       </c>
       <c r="O112" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P112">
         <v>0.5</v>
@@ -20160,28 +20587,28 @@
         <v>1</v>
       </c>
       <c r="AE112" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG112" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH112" t="s">
         <v>0</v>
       </c>
       <c r="AI112" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK112" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL112">
         <v>0</v>
       </c>
       <c r="AM112" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN112" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO112">
         <v>0</v>
@@ -20225,19 +20652,19 @@
         <v>0</v>
       </c>
       <c r="K113" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L113">
         <v>0.5</v>
       </c>
       <c r="M113" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N113">
         <v>0</v>
       </c>
       <c r="O113" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P113">
         <v>0.5</v>
@@ -20270,28 +20697,28 @@
         <v>1</v>
       </c>
       <c r="AE113" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG113" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH113" t="s">
         <v>0</v>
       </c>
       <c r="AI113" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK113" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL113">
         <v>0</v>
       </c>
       <c r="AM113" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN113" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO113">
         <v>0</v>
@@ -20335,19 +20762,19 @@
         <v>0</v>
       </c>
       <c r="K114" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L114">
         <v>0.5</v>
       </c>
       <c r="M114" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N114">
         <v>0</v>
       </c>
       <c r="O114" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P114">
         <v>0.5</v>
@@ -20380,28 +20807,28 @@
         <v>1</v>
       </c>
       <c r="AE114" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG114" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH114" t="s">
         <v>0</v>
       </c>
       <c r="AI114" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK114" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL114">
         <v>0</v>
       </c>
       <c r="AM114" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN114" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO114">
         <v>0</v>
@@ -20445,19 +20872,19 @@
         <v>0</v>
       </c>
       <c r="K115" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L115">
         <v>0.5</v>
       </c>
       <c r="M115" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N115">
         <v>0</v>
       </c>
       <c r="O115" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P115">
         <v>0.5</v>
@@ -20490,28 +20917,28 @@
         <v>1</v>
       </c>
       <c r="AE115" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG115" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH115" t="s">
         <v>0</v>
       </c>
       <c r="AI115" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK115" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL115">
         <v>0</v>
       </c>
       <c r="AM115" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN115" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO115">
         <v>0</v>
@@ -20546,28 +20973,28 @@
         <v>20</v>
       </c>
       <c r="G116" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H116" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I116">
         <v>0</v>
       </c>
       <c r="K116" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L116">
         <v>0.5</v>
       </c>
       <c r="M116" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N116">
         <v>0</v>
       </c>
       <c r="O116" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P116">
         <v>0.5</v>
@@ -20600,28 +21027,28 @@
         <v>1</v>
       </c>
       <c r="AE116" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG116" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH116" t="s">
         <v>0</v>
       </c>
       <c r="AI116" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK116" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL116">
         <v>0</v>
       </c>
       <c r="AM116" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN116" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO116">
         <v>0</v>
@@ -20656,28 +21083,28 @@
         <v>30</v>
       </c>
       <c r="G117" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H117" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="K117" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L117">
         <v>0.5</v>
       </c>
       <c r="M117" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N117">
         <v>0</v>
       </c>
       <c r="O117" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P117">
         <v>0.5</v>
@@ -20710,28 +21137,28 @@
         <v>1</v>
       </c>
       <c r="AE117" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG117" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH117" t="s">
         <v>0</v>
       </c>
       <c r="AI117" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK117" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL117">
         <v>0</v>
       </c>
       <c r="AM117" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN117" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO117">
         <v>0</v>
@@ -20766,28 +21193,28 @@
         <v>40</v>
       </c>
       <c r="G118" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H118" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="K118" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L118">
         <v>0.5</v>
       </c>
       <c r="M118" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N118">
         <v>0</v>
       </c>
       <c r="O118" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P118">
         <v>0.5</v>
@@ -20820,28 +21247,28 @@
         <v>1</v>
       </c>
       <c r="AE118" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG118" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH118" t="s">
         <v>0</v>
       </c>
       <c r="AI118" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK118" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL118">
         <v>0</v>
       </c>
       <c r="AM118" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN118" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO118">
         <v>0</v>
@@ -20885,19 +21312,19 @@
         <v>0</v>
       </c>
       <c r="K119" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L119">
         <v>0.5</v>
       </c>
       <c r="M119" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N119">
         <v>0</v>
       </c>
       <c r="O119" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P119">
         <v>0.5</v>
@@ -20930,28 +21357,28 @@
         <v>1</v>
       </c>
       <c r="AE119" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG119" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH119" t="s">
         <v>0</v>
       </c>
       <c r="AI119" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK119" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL119">
         <v>0</v>
       </c>
       <c r="AM119" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN119" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO119">
         <v>0</v>
@@ -20995,19 +21422,19 @@
         <v>0</v>
       </c>
       <c r="K120" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L120">
         <v>0.5</v>
       </c>
       <c r="M120" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N120">
         <v>0</v>
       </c>
       <c r="O120" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P120">
         <v>0.5</v>
@@ -21040,28 +21467,28 @@
         <v>1</v>
       </c>
       <c r="AE120" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG120" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH120" t="s">
         <v>0</v>
       </c>
       <c r="AI120" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AK120" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL120">
         <v>0</v>
       </c>
       <c r="AM120" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AN120" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AO120">
         <v>0</v>

--- a/OpsAndMats/Model76E_Motor.xlsx
+++ b/OpsAndMats/Model76E_Motor.xlsx
@@ -398,7 +398,7 @@
     <t>9014203-4</t>
   </si>
   <si>
-    <t>9030200-3</t>
+    <t>9030200-312</t>
   </si>
   <si>
     <t>9014408-8</t>
